--- a/class/final_report/data/2004.xlsx
+++ b/class/final_report/data/2004.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\星澤　知宙\Desktop\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4FEAC8-8C95-44FD-9D0D-C9B4ACCAC342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5AF363-F061-4DB0-82F8-F6BCA691DE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,9 +379,6 @@
   </si>
   <si>
     <t>石狩支庁計</t>
-  </si>
-  <si>
-    <t>札幌市（定山渓を除く）</t>
   </si>
   <si>
     <t>定山渓</t>
@@ -1037,6 +1034,10 @@
   <si>
     <t>羅臼町</t>
   </si>
+  <si>
+    <t>札幌市</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -1428,6 +1429,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1453,24 +1472,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1754,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1977"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="C307" sqref="C307:C312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1960,11 +1961,11 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
@@ -2021,9 +2022,9 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="8" t="s">
         <v>24</v>
       </c>
@@ -2080,9 +2081,9 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="8" t="s">
         <v>25</v>
       </c>
@@ -2139,9 +2140,9 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="8" t="s">
         <v>26</v>
       </c>
@@ -2198,9 +2199,9 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
@@ -2257,9 +2258,9 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="11" t="s">
         <v>28</v>
       </c>
@@ -2317,10 +2318,10 @@
     </row>
     <row r="10" spans="1:21" ht="13.5" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="5" t="s">
         <v>23</v>
       </c>
@@ -2378,8 +2379,8 @@
     </row>
     <row r="11" spans="1:21" ht="13.5" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
@@ -2437,8 +2438,8 @@
     </row>
     <row r="12" spans="1:21" ht="13.5" customHeight="1">
       <c r="A12" s="15"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
@@ -2496,8 +2497,8 @@
     </row>
     <row r="13" spans="1:21" ht="13.5" customHeight="1">
       <c r="A13" s="15"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
@@ -2555,8 +2556,8 @@
     </row>
     <row r="14" spans="1:21" ht="13.5" customHeight="1">
       <c r="A14" s="15"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="8" t="s">
         <v>27</v>
       </c>
@@ -2614,8 +2615,8 @@
     </row>
     <row r="15" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A15" s="15"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="11" t="s">
         <v>28</v>
       </c>
@@ -8905,10 +8906,10 @@
     </row>
     <row r="175" spans="1:21" ht="13.5" customHeight="1">
       <c r="A175" s="14"/>
-      <c r="B175" s="30" t="s">
+      <c r="B175" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C175" s="31"/>
+      <c r="C175" s="22"/>
       <c r="D175" s="5" t="s">
         <v>23</v>
       </c>
@@ -8966,8 +8967,8 @@
     </row>
     <row r="176" spans="1:21" ht="13.5" customHeight="1">
       <c r="A176" s="15"/>
-      <c r="B176" s="32"/>
-      <c r="C176" s="33"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="24"/>
       <c r="D176" s="8" t="s">
         <v>24</v>
       </c>
@@ -9027,8 +9028,8 @@
       <c r="A177" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B177" s="32"/>
-      <c r="C177" s="33"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="24"/>
       <c r="D177" s="8" t="s">
         <v>25</v>
       </c>
@@ -9086,8 +9087,8 @@
     </row>
     <row r="178" spans="1:21" ht="13.5" customHeight="1">
       <c r="A178" s="15"/>
-      <c r="B178" s="32"/>
-      <c r="C178" s="33"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="24"/>
       <c r="D178" s="8" t="s">
         <v>26</v>
       </c>
@@ -9145,8 +9146,8 @@
     </row>
     <row r="179" spans="1:21" ht="13.5" customHeight="1">
       <c r="A179" s="15"/>
-      <c r="B179" s="32"/>
-      <c r="C179" s="33"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="24"/>
       <c r="D179" s="8" t="s">
         <v>27</v>
       </c>
@@ -9204,8 +9205,8 @@
     </row>
     <row r="180" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A180" s="15"/>
-      <c r="B180" s="34"/>
-      <c r="C180" s="35"/>
+      <c r="B180" s="25"/>
+      <c r="C180" s="26"/>
       <c r="D180" s="11" t="s">
         <v>28</v>
       </c>
@@ -12961,11 +12962,11 @@
       </c>
     </row>
     <row r="289" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A289" s="21" t="s">
+      <c r="A289" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B289" s="22"/>
-      <c r="C289" s="23"/>
+      <c r="B289" s="28"/>
+      <c r="C289" s="29"/>
       <c r="D289" s="5" t="s">
         <v>23</v>
       </c>
@@ -13022,9 +13023,9 @@
       </c>
     </row>
     <row r="290" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A290" s="24"/>
-      <c r="B290" s="25"/>
-      <c r="C290" s="26"/>
+      <c r="A290" s="30"/>
+      <c r="B290" s="31"/>
+      <c r="C290" s="32"/>
       <c r="D290" s="8" t="s">
         <v>24</v>
       </c>
@@ -13081,9 +13082,9 @@
       </c>
     </row>
     <row r="291" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A291" s="24"/>
-      <c r="B291" s="25"/>
-      <c r="C291" s="26"/>
+      <c r="A291" s="30"/>
+      <c r="B291" s="31"/>
+      <c r="C291" s="32"/>
       <c r="D291" s="8" t="s">
         <v>25</v>
       </c>
@@ -13140,9 +13141,9 @@
       </c>
     </row>
     <row r="292" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A292" s="24"/>
-      <c r="B292" s="25"/>
-      <c r="C292" s="26"/>
+      <c r="A292" s="30"/>
+      <c r="B292" s="31"/>
+      <c r="C292" s="32"/>
       <c r="D292" s="8" t="s">
         <v>26</v>
       </c>
@@ -13199,9 +13200,9 @@
       </c>
     </row>
     <row r="293" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A293" s="24"/>
-      <c r="B293" s="25"/>
-      <c r="C293" s="26"/>
+      <c r="A293" s="30"/>
+      <c r="B293" s="31"/>
+      <c r="C293" s="32"/>
       <c r="D293" s="8" t="s">
         <v>27</v>
       </c>
@@ -13258,9 +13259,9 @@
       </c>
     </row>
     <row r="294" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A294" s="27"/>
-      <c r="B294" s="28"/>
-      <c r="C294" s="29"/>
+      <c r="A294" s="33"/>
+      <c r="B294" s="34"/>
+      <c r="C294" s="35"/>
       <c r="D294" s="11" t="s">
         <v>28</v>
       </c>
@@ -13318,10 +13319,10 @@
     </row>
     <row r="295" spans="1:21" ht="13.5" customHeight="1">
       <c r="A295" s="14"/>
-      <c r="B295" s="30" t="s">
+      <c r="B295" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C295" s="31"/>
+      <c r="C295" s="22"/>
       <c r="D295" s="5" t="s">
         <v>23</v>
       </c>
@@ -13379,8 +13380,8 @@
     </row>
     <row r="296" spans="1:21" ht="13.5" customHeight="1">
       <c r="A296" s="15"/>
-      <c r="B296" s="32"/>
-      <c r="C296" s="33"/>
+      <c r="B296" s="23"/>
+      <c r="C296" s="24"/>
       <c r="D296" s="8" t="s">
         <v>24</v>
       </c>
@@ -13438,8 +13439,8 @@
     </row>
     <row r="297" spans="1:21" ht="13.5" customHeight="1">
       <c r="A297" s="15"/>
-      <c r="B297" s="32"/>
-      <c r="C297" s="33"/>
+      <c r="B297" s="23"/>
+      <c r="C297" s="24"/>
       <c r="D297" s="8" t="s">
         <v>25</v>
       </c>
@@ -13497,8 +13498,8 @@
     </row>
     <row r="298" spans="1:21" ht="13.5" customHeight="1">
       <c r="A298" s="15"/>
-      <c r="B298" s="32"/>
-      <c r="C298" s="33"/>
+      <c r="B298" s="23"/>
+      <c r="C298" s="24"/>
       <c r="D298" s="8" t="s">
         <v>26</v>
       </c>
@@ -13556,8 +13557,8 @@
     </row>
     <row r="299" spans="1:21" ht="13.5" customHeight="1">
       <c r="A299" s="15"/>
-      <c r="B299" s="32"/>
-      <c r="C299" s="33"/>
+      <c r="B299" s="23"/>
+      <c r="C299" s="24"/>
       <c r="D299" s="8" t="s">
         <v>27</v>
       </c>
@@ -13615,8 +13616,8 @@
     </row>
     <row r="300" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A300" s="15"/>
-      <c r="B300" s="34"/>
-      <c r="C300" s="35"/>
+      <c r="B300" s="25"/>
+      <c r="C300" s="26"/>
       <c r="D300" s="11" t="s">
         <v>28</v>
       </c>
@@ -13675,7 +13676,7 @@
     <row r="301" spans="1:21" ht="13.5" customHeight="1">
       <c r="A301" s="15"/>
       <c r="C301" s="18" t="s">
-        <v>64</v>
+        <v>282</v>
       </c>
       <c r="D301" s="5" t="s">
         <v>23</v>
@@ -14025,7 +14026,7 @@
     <row r="307" spans="1:21" ht="13.5" customHeight="1">
       <c r="A307" s="15"/>
       <c r="C307" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D307" s="5" t="s">
         <v>23</v>
@@ -14375,7 +14376,7 @@
     <row r="313" spans="1:21" ht="13.5" customHeight="1">
       <c r="A313" s="15"/>
       <c r="C313" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D313" s="5" t="s">
         <v>23</v>
@@ -14725,7 +14726,7 @@
     <row r="319" spans="1:21" ht="13.5" customHeight="1">
       <c r="A319" s="15"/>
       <c r="C319" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D319" s="5" t="s">
         <v>23</v>
@@ -15075,7 +15076,7 @@
     <row r="325" spans="1:21" ht="13.5" customHeight="1">
       <c r="A325" s="15"/>
       <c r="C325" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D325" s="5" t="s">
         <v>23</v>
@@ -15425,7 +15426,7 @@
     <row r="331" spans="1:21" ht="13.5" customHeight="1">
       <c r="A331" s="15"/>
       <c r="C331" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D331" s="5" t="s">
         <v>23</v>
@@ -15775,7 +15776,7 @@
     <row r="337" spans="1:21" ht="13.5" customHeight="1">
       <c r="A337" s="15"/>
       <c r="C337" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D337" s="5" t="s">
         <v>23</v>
@@ -16201,7 +16202,7 @@
     <row r="346" spans="1:21" ht="13.5" customHeight="1">
       <c r="A346" s="14"/>
       <c r="C346" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D346" s="5" t="s">
         <v>23</v>
@@ -16318,10 +16319,10 @@
     </row>
     <row r="348" spans="1:21" ht="13.5" customHeight="1">
       <c r="A348" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B348" t="s">
         <v>72</v>
-      </c>
-      <c r="B348" t="s">
-        <v>73</v>
       </c>
       <c r="C348" s="19"/>
       <c r="D348" s="8" t="s">
@@ -16556,7 +16557,7 @@
     <row r="352" spans="1:21" ht="13.5" customHeight="1">
       <c r="A352" s="15"/>
       <c r="C352" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D352" s="5" t="s">
         <v>23</v>
@@ -16906,7 +16907,7 @@
     <row r="358" spans="1:21" ht="13.5" customHeight="1">
       <c r="A358" s="15"/>
       <c r="C358" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D358" s="5" t="s">
         <v>23</v>
@@ -17256,7 +17257,7 @@
     <row r="364" spans="1:21" ht="13.5" customHeight="1">
       <c r="A364" s="15"/>
       <c r="C364" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D364" s="5" t="s">
         <v>23</v>
@@ -17711,10 +17712,10 @@
     </row>
     <row r="403" spans="1:21" ht="13.5" customHeight="1">
       <c r="A403" s="14"/>
-      <c r="B403" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C403" s="31"/>
+      <c r="B403" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C403" s="22"/>
       <c r="D403" s="5" t="s">
         <v>23</v>
       </c>
@@ -17772,8 +17773,8 @@
     </row>
     <row r="404" spans="1:21" ht="13.5" customHeight="1">
       <c r="A404" s="15"/>
-      <c r="B404" s="32"/>
-      <c r="C404" s="33"/>
+      <c r="B404" s="23"/>
+      <c r="C404" s="24"/>
       <c r="D404" s="8" t="s">
         <v>24</v>
       </c>
@@ -17831,10 +17832,10 @@
     </row>
     <row r="405" spans="1:21" ht="13.5" customHeight="1">
       <c r="A405" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B405" s="32"/>
-      <c r="C405" s="33"/>
+        <v>71</v>
+      </c>
+      <c r="B405" s="23"/>
+      <c r="C405" s="24"/>
       <c r="D405" s="8" t="s">
         <v>25</v>
       </c>
@@ -17892,8 +17893,8 @@
     </row>
     <row r="406" spans="1:21" ht="13.5" customHeight="1">
       <c r="A406" s="15"/>
-      <c r="B406" s="32"/>
-      <c r="C406" s="33"/>
+      <c r="B406" s="23"/>
+      <c r="C406" s="24"/>
       <c r="D406" s="8" t="s">
         <v>26</v>
       </c>
@@ -17951,8 +17952,8 @@
     </row>
     <row r="407" spans="1:21" ht="13.5" customHeight="1">
       <c r="A407" s="15"/>
-      <c r="B407" s="32"/>
-      <c r="C407" s="33"/>
+      <c r="B407" s="23"/>
+      <c r="C407" s="24"/>
       <c r="D407" s="8" t="s">
         <v>27</v>
       </c>
@@ -18010,8 +18011,8 @@
     </row>
     <row r="408" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A408" s="15"/>
-      <c r="B408" s="34"/>
-      <c r="C408" s="35"/>
+      <c r="B408" s="25"/>
+      <c r="C408" s="26"/>
       <c r="D408" s="11" t="s">
         <v>28</v>
       </c>
@@ -18070,7 +18071,7 @@
     <row r="409" spans="1:21" ht="13.5" customHeight="1">
       <c r="A409" s="15"/>
       <c r="C409" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D409" s="5" t="s">
         <v>23</v>
@@ -18420,7 +18421,7 @@
     <row r="415" spans="1:21" ht="13.5" customHeight="1">
       <c r="A415" s="15"/>
       <c r="C415" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D415" s="5" t="s">
         <v>23</v>
@@ -18770,7 +18771,7 @@
     <row r="421" spans="1:21" ht="13.5" customHeight="1">
       <c r="A421" s="15"/>
       <c r="C421" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D421" s="5" t="s">
         <v>23</v>
@@ -19120,7 +19121,7 @@
     <row r="427" spans="1:21" ht="13.5" customHeight="1">
       <c r="A427" s="15"/>
       <c r="C427" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D427" s="5" t="s">
         <v>23</v>
@@ -19470,7 +19471,7 @@
     <row r="433" spans="1:21" ht="13.5" customHeight="1">
       <c r="A433" s="15"/>
       <c r="C433" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D433" s="5" t="s">
         <v>23</v>
@@ -19820,7 +19821,7 @@
     <row r="439" spans="1:21" ht="13.5" customHeight="1">
       <c r="A439" s="15"/>
       <c r="C439" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D439" s="5" t="s">
         <v>23</v>
@@ -20170,7 +20171,7 @@
     <row r="445" spans="1:21" ht="13.5" customHeight="1">
       <c r="A445" s="15"/>
       <c r="C445" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D445" s="5" t="s">
         <v>23</v>
@@ -20520,7 +20521,7 @@
     <row r="451" spans="1:21" ht="13.5" customHeight="1">
       <c r="A451" s="15"/>
       <c r="C451" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D451" s="5" t="s">
         <v>23</v>
@@ -20946,7 +20947,7 @@
     <row r="460" spans="1:21" ht="13.5" customHeight="1">
       <c r="A460" s="14"/>
       <c r="C460" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D460" s="5" t="s">
         <v>23</v>
@@ -21063,10 +21064,10 @@
     </row>
     <row r="462" spans="1:21" ht="13.5" customHeight="1">
       <c r="A462" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B462" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C462" s="19"/>
       <c r="D462" s="8" t="s">
@@ -21301,7 +21302,7 @@
     <row r="466" spans="1:21" ht="13.5" customHeight="1">
       <c r="A466" s="15"/>
       <c r="C466" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D466" s="5" t="s">
         <v>23</v>
@@ -21651,7 +21652,7 @@
     <row r="472" spans="1:21" ht="13.5" customHeight="1">
       <c r="A472" s="15"/>
       <c r="C472" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D472" s="5" t="s">
         <v>23</v>
@@ -22001,7 +22002,7 @@
     <row r="478" spans="1:21" ht="13.5" customHeight="1">
       <c r="A478" s="15"/>
       <c r="C478" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D478" s="5" t="s">
         <v>23</v>
@@ -22351,7 +22352,7 @@
     <row r="484" spans="1:21" ht="13.5" customHeight="1">
       <c r="A484" s="15"/>
       <c r="C484" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D484" s="5" t="s">
         <v>23</v>
@@ -22701,7 +22702,7 @@
     <row r="490" spans="1:21" ht="13.5" customHeight="1">
       <c r="A490" s="15"/>
       <c r="C490" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D490" s="5" t="s">
         <v>23</v>
@@ -23051,7 +23052,7 @@
     <row r="496" spans="1:21" ht="13.5" customHeight="1">
       <c r="A496" s="15"/>
       <c r="C496" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D496" s="5" t="s">
         <v>23</v>
@@ -23401,7 +23402,7 @@
     <row r="502" spans="1:21" ht="13.5" customHeight="1">
       <c r="A502" s="15"/>
       <c r="C502" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D502" s="5" t="s">
         <v>23</v>
@@ -23751,7 +23752,7 @@
     <row r="508" spans="1:21" ht="13.5" customHeight="1">
       <c r="A508" s="15"/>
       <c r="C508" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D508" s="5" t="s">
         <v>23</v>
@@ -24177,7 +24178,7 @@
     <row r="517" spans="1:21" ht="13.5" customHeight="1">
       <c r="A517" s="14"/>
       <c r="C517" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D517" s="5" t="s">
         <v>23</v>
@@ -24294,10 +24295,10 @@
     </row>
     <row r="519" spans="1:21" ht="13.5" customHeight="1">
       <c r="A519" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B519" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C519" s="19"/>
       <c r="D519" s="8" t="s">
@@ -24532,7 +24533,7 @@
     <row r="523" spans="1:21" ht="13.5" customHeight="1">
       <c r="A523" s="15"/>
       <c r="C523" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D523" s="5" t="s">
         <v>23</v>
@@ -24882,7 +24883,7 @@
     <row r="529" spans="1:21" ht="13.5" customHeight="1">
       <c r="A529" s="15"/>
       <c r="C529" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D529" s="5" t="s">
         <v>23</v>
@@ -25343,10 +25344,10 @@
     </row>
     <row r="574" spans="1:21" ht="13.5" customHeight="1">
       <c r="A574" s="14"/>
-      <c r="B574" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C574" s="31"/>
+      <c r="B574" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C574" s="22"/>
       <c r="D574" s="5" t="s">
         <v>23</v>
       </c>
@@ -25404,8 +25405,8 @@
     </row>
     <row r="575" spans="1:21" ht="13.5" customHeight="1">
       <c r="A575" s="15"/>
-      <c r="B575" s="32"/>
-      <c r="C575" s="33"/>
+      <c r="B575" s="23"/>
+      <c r="C575" s="24"/>
       <c r="D575" s="8" t="s">
         <v>24</v>
       </c>
@@ -25463,10 +25464,10 @@
     </row>
     <row r="576" spans="1:21" ht="13.5" customHeight="1">
       <c r="A576" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B576" s="32"/>
-      <c r="C576" s="33"/>
+        <v>71</v>
+      </c>
+      <c r="B576" s="23"/>
+      <c r="C576" s="24"/>
       <c r="D576" s="8" t="s">
         <v>25</v>
       </c>
@@ -25524,8 +25525,8 @@
     </row>
     <row r="577" spans="1:21" ht="13.5" customHeight="1">
       <c r="A577" s="15"/>
-      <c r="B577" s="32"/>
-      <c r="C577" s="33"/>
+      <c r="B577" s="23"/>
+      <c r="C577" s="24"/>
       <c r="D577" s="8" t="s">
         <v>26</v>
       </c>
@@ -25583,8 +25584,8 @@
     </row>
     <row r="578" spans="1:21" ht="13.5" customHeight="1">
       <c r="A578" s="15"/>
-      <c r="B578" s="32"/>
-      <c r="C578" s="33"/>
+      <c r="B578" s="23"/>
+      <c r="C578" s="24"/>
       <c r="D578" s="8" t="s">
         <v>27</v>
       </c>
@@ -25642,8 +25643,8 @@
     </row>
     <row r="579" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A579" s="15"/>
-      <c r="B579" s="34"/>
-      <c r="C579" s="35"/>
+      <c r="B579" s="25"/>
+      <c r="C579" s="26"/>
       <c r="D579" s="11" t="s">
         <v>28</v>
       </c>
@@ -25702,7 +25703,7 @@
     <row r="580" spans="1:21" ht="13.5" customHeight="1">
       <c r="A580" s="15"/>
       <c r="C580" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D580" s="5" t="s">
         <v>23</v>
@@ -26052,7 +26053,7 @@
     <row r="586" spans="1:21" ht="13.5" customHeight="1">
       <c r="A586" s="15"/>
       <c r="C586" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D586" s="5" t="s">
         <v>23</v>
@@ -26402,7 +26403,7 @@
     <row r="592" spans="1:21" ht="13.5" customHeight="1">
       <c r="A592" s="15"/>
       <c r="C592" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D592" s="5" t="s">
         <v>23</v>
@@ -26752,7 +26753,7 @@
     <row r="598" spans="1:21" ht="13.5" customHeight="1">
       <c r="A598" s="15"/>
       <c r="C598" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D598" s="5" t="s">
         <v>23</v>
@@ -27102,7 +27103,7 @@
     <row r="604" spans="1:21" ht="13.5" customHeight="1">
       <c r="A604" s="15"/>
       <c r="C604" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D604" s="5" t="s">
         <v>23</v>
@@ -27452,7 +27453,7 @@
     <row r="610" spans="1:21" ht="13.5" customHeight="1">
       <c r="A610" s="15"/>
       <c r="C610" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D610" s="5" t="s">
         <v>23</v>
@@ -27802,7 +27803,7 @@
     <row r="616" spans="1:21" ht="13.5" customHeight="1">
       <c r="A616" s="15"/>
       <c r="C616" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D616" s="5" t="s">
         <v>23</v>
@@ -28152,7 +28153,7 @@
     <row r="622" spans="1:21" ht="13.5" customHeight="1">
       <c r="A622" s="15"/>
       <c r="C622" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D622" s="5" t="s">
         <v>23</v>
@@ -28578,7 +28579,7 @@
     <row r="631" spans="1:21" ht="13.5" customHeight="1">
       <c r="A631" s="14"/>
       <c r="C631" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D631" s="5" t="s">
         <v>23</v>
@@ -28695,10 +28696,10 @@
     </row>
     <row r="633" spans="1:21" ht="13.5" customHeight="1">
       <c r="A633" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B633" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C633" s="19"/>
       <c r="D633" s="8" t="s">
@@ -28933,7 +28934,7 @@
     <row r="637" spans="1:21" ht="13.5" customHeight="1">
       <c r="A637" s="15"/>
       <c r="C637" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D637" s="5" t="s">
         <v>23</v>
@@ -29283,7 +29284,7 @@
     <row r="643" spans="1:21" ht="13.5" customHeight="1">
       <c r="A643" s="15"/>
       <c r="C643" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D643" s="5" t="s">
         <v>23</v>
@@ -29633,7 +29634,7 @@
     <row r="649" spans="1:21" ht="13.5" customHeight="1">
       <c r="A649" s="15"/>
       <c r="C649" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D649" s="5" t="s">
         <v>23</v>
@@ -29983,7 +29984,7 @@
     <row r="655" spans="1:21" ht="13.5" customHeight="1">
       <c r="A655" s="15"/>
       <c r="C655" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D655" s="5" t="s">
         <v>23</v>
@@ -30331,7 +30332,7 @@
     <row r="661" spans="1:21" ht="13.5" customHeight="1">
       <c r="A661" s="15"/>
       <c r="C661" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D661" s="5" t="s">
         <v>23</v>
@@ -30681,7 +30682,7 @@
     <row r="667" spans="1:21" ht="13.5" customHeight="1">
       <c r="A667" s="15"/>
       <c r="C667" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D667" s="5" t="s">
         <v>23</v>
@@ -31031,7 +31032,7 @@
     <row r="673" spans="1:21" ht="13.5" customHeight="1">
       <c r="A673" s="15"/>
       <c r="C673" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D673" s="5" t="s">
         <v>23</v>
@@ -31381,7 +31382,7 @@
     <row r="679" spans="1:21" ht="13.5" customHeight="1">
       <c r="A679" s="15"/>
       <c r="C679" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D679" s="5" t="s">
         <v>23</v>
@@ -31807,7 +31808,7 @@
     <row r="688" spans="1:21" ht="13.5" customHeight="1">
       <c r="A688" s="14"/>
       <c r="C688" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D688" s="5" t="s">
         <v>23</v>
@@ -31924,10 +31925,10 @@
     </row>
     <row r="690" spans="1:21" ht="13.5" customHeight="1">
       <c r="A690" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B690" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C690" s="19"/>
       <c r="D690" s="8" t="s">
@@ -32162,7 +32163,7 @@
     <row r="694" spans="1:21" ht="13.5" customHeight="1">
       <c r="A694" s="15"/>
       <c r="C694" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D694" s="5" t="s">
         <v>23</v>
@@ -32512,7 +32513,7 @@
     <row r="700" spans="1:21" ht="13.5" customHeight="1">
       <c r="A700" s="15"/>
       <c r="C700" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D700" s="5" t="s">
         <v>23</v>
@@ -32862,7 +32863,7 @@
     <row r="706" spans="1:21" ht="13.5" customHeight="1">
       <c r="A706" s="15"/>
       <c r="C706" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D706" s="5" t="s">
         <v>23</v>
@@ -33212,7 +33213,7 @@
     <row r="712" spans="1:21" ht="13.5" customHeight="1">
       <c r="A712" s="15"/>
       <c r="C712" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D712" s="5" t="s">
         <v>23</v>
@@ -33562,7 +33563,7 @@
     <row r="718" spans="1:21" ht="13.5" customHeight="1">
       <c r="A718" s="15"/>
       <c r="C718" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D718" s="5" t="s">
         <v>23</v>
@@ -33912,7 +33913,7 @@
     <row r="724" spans="1:21" ht="13.5" customHeight="1">
       <c r="A724" s="15"/>
       <c r="C724" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D724" s="5" t="s">
         <v>23</v>
@@ -34262,7 +34263,7 @@
     <row r="730" spans="1:21" ht="13.5" customHeight="1">
       <c r="A730" s="15"/>
       <c r="C730" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D730" s="5" t="s">
         <v>23</v>
@@ -34612,7 +34613,7 @@
     <row r="736" spans="1:21" ht="13.5" customHeight="1">
       <c r="A736" s="15"/>
       <c r="C736" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D736" s="5" t="s">
         <v>23</v>
@@ -35038,7 +35039,7 @@
     <row r="745" spans="1:21" ht="13.5" customHeight="1">
       <c r="A745" s="14"/>
       <c r="C745" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D745" s="5" t="s">
         <v>23</v>
@@ -35155,10 +35156,10 @@
     </row>
     <row r="747" spans="1:21" ht="13.5" customHeight="1">
       <c r="A747" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B747" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C747" s="19"/>
       <c r="D747" s="8" t="s">
@@ -35516,10 +35517,10 @@
     </row>
     <row r="802" spans="1:21" ht="13.5" customHeight="1">
       <c r="A802" s="14"/>
-      <c r="B802" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C802" s="31"/>
+      <c r="B802" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C802" s="22"/>
       <c r="D802" s="5" t="s">
         <v>23</v>
       </c>
@@ -35577,8 +35578,8 @@
     </row>
     <row r="803" spans="1:21" ht="13.5" customHeight="1">
       <c r="A803" s="15"/>
-      <c r="B803" s="32"/>
-      <c r="C803" s="33"/>
+      <c r="B803" s="23"/>
+      <c r="C803" s="24"/>
       <c r="D803" s="8" t="s">
         <v>24</v>
       </c>
@@ -35636,10 +35637,10 @@
     </row>
     <row r="804" spans="1:21" ht="13.5" customHeight="1">
       <c r="A804" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B804" s="32"/>
-      <c r="C804" s="33"/>
+        <v>71</v>
+      </c>
+      <c r="B804" s="23"/>
+      <c r="C804" s="24"/>
       <c r="D804" s="8" t="s">
         <v>25</v>
       </c>
@@ -35697,8 +35698,8 @@
     </row>
     <row r="805" spans="1:21" ht="13.5" customHeight="1">
       <c r="A805" s="15"/>
-      <c r="B805" s="32"/>
-      <c r="C805" s="33"/>
+      <c r="B805" s="23"/>
+      <c r="C805" s="24"/>
       <c r="D805" s="8" t="s">
         <v>26</v>
       </c>
@@ -35756,8 +35757,8 @@
     </row>
     <row r="806" spans="1:21" ht="13.5" customHeight="1">
       <c r="A806" s="15"/>
-      <c r="B806" s="32"/>
-      <c r="C806" s="33"/>
+      <c r="B806" s="23"/>
+      <c r="C806" s="24"/>
       <c r="D806" s="8" t="s">
         <v>27</v>
       </c>
@@ -35815,8 +35816,8 @@
     </row>
     <row r="807" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A807" s="15"/>
-      <c r="B807" s="34"/>
-      <c r="C807" s="35"/>
+      <c r="B807" s="25"/>
+      <c r="C807" s="26"/>
       <c r="D807" s="11" t="s">
         <v>28</v>
       </c>
@@ -35875,7 +35876,7 @@
     <row r="808" spans="1:21" ht="13.5" customHeight="1">
       <c r="A808" s="15"/>
       <c r="C808" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D808" s="5" t="s">
         <v>23</v>
@@ -36225,7 +36226,7 @@
     <row r="814" spans="1:21" ht="13.5" customHeight="1">
       <c r="A814" s="15"/>
       <c r="C814" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D814" s="5" t="s">
         <v>23</v>
@@ -36575,7 +36576,7 @@
     <row r="820" spans="1:21" ht="13.5" customHeight="1">
       <c r="A820" s="15"/>
       <c r="C820" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D820" s="5" t="s">
         <v>23</v>
@@ -36925,7 +36926,7 @@
     <row r="826" spans="1:21" ht="13.5" customHeight="1">
       <c r="A826" s="15"/>
       <c r="C826" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D826" s="5" t="s">
         <v>23</v>
@@ -37275,7 +37276,7 @@
     <row r="832" spans="1:21" ht="13.5" customHeight="1">
       <c r="A832" s="15"/>
       <c r="C832" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D832" s="5" t="s">
         <v>23</v>
@@ -37625,7 +37626,7 @@
     <row r="838" spans="1:21" ht="13.5" customHeight="1">
       <c r="A838" s="15"/>
       <c r="C838" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D838" s="5" t="s">
         <v>23</v>
@@ -37975,7 +37976,7 @@
     <row r="844" spans="1:21" ht="13.5" customHeight="1">
       <c r="A844" s="15"/>
       <c r="C844" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D844" s="5" t="s">
         <v>23</v>
@@ -38325,7 +38326,7 @@
     <row r="850" spans="1:21" ht="13.5" customHeight="1">
       <c r="A850" s="15"/>
       <c r="C850" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D850" s="5" t="s">
         <v>23</v>
@@ -38751,7 +38752,7 @@
     <row r="859" spans="1:21" ht="13.5" customHeight="1">
       <c r="A859" s="14"/>
       <c r="C859" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D859" s="5" t="s">
         <v>23</v>
@@ -38868,10 +38869,10 @@
     </row>
     <row r="861" spans="1:21" ht="13.5" customHeight="1">
       <c r="A861" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B861" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C861" s="19"/>
       <c r="D861" s="8" t="s">
@@ -39106,7 +39107,7 @@
     <row r="865" spans="1:21" ht="13.5" customHeight="1">
       <c r="A865" s="15"/>
       <c r="C865" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D865" s="5" t="s">
         <v>23</v>
@@ -39456,7 +39457,7 @@
     <row r="871" spans="1:21" ht="13.5" customHeight="1">
       <c r="A871" s="15"/>
       <c r="C871" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D871" s="5" t="s">
         <v>23</v>
@@ -39806,7 +39807,7 @@
     <row r="877" spans="1:21" ht="13.5" customHeight="1">
       <c r="A877" s="15"/>
       <c r="C877" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D877" s="5" t="s">
         <v>23</v>
@@ -40156,7 +40157,7 @@
     <row r="883" spans="1:21" ht="13.5" customHeight="1">
       <c r="A883" s="15"/>
       <c r="C883" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D883" s="5" t="s">
         <v>23</v>
@@ -40506,7 +40507,7 @@
     <row r="889" spans="1:21" ht="13.5" customHeight="1">
       <c r="A889" s="15"/>
       <c r="C889" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D889" s="5" t="s">
         <v>23</v>
@@ -40850,7 +40851,7 @@
     <row r="895" spans="1:21" ht="13.5" customHeight="1">
       <c r="A895" s="15"/>
       <c r="C895" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D895" s="5" t="s">
         <v>23</v>
@@ -41287,10 +41288,10 @@
     </row>
     <row r="916" spans="1:21" ht="13.5" customHeight="1">
       <c r="A916" s="14"/>
-      <c r="B916" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C916" s="31"/>
+      <c r="B916" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C916" s="22"/>
       <c r="D916" s="5" t="s">
         <v>23</v>
       </c>
@@ -41348,8 +41349,8 @@
     </row>
     <row r="917" spans="1:21" ht="13.5" customHeight="1">
       <c r="A917" s="15"/>
-      <c r="B917" s="32"/>
-      <c r="C917" s="33"/>
+      <c r="B917" s="23"/>
+      <c r="C917" s="24"/>
       <c r="D917" s="8" t="s">
         <v>24</v>
       </c>
@@ -41407,10 +41408,10 @@
     </row>
     <row r="918" spans="1:21" ht="13.5" customHeight="1">
       <c r="A918" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B918" s="32"/>
-      <c r="C918" s="33"/>
+        <v>71</v>
+      </c>
+      <c r="B918" s="23"/>
+      <c r="C918" s="24"/>
       <c r="D918" s="8" t="s">
         <v>25</v>
       </c>
@@ -41468,8 +41469,8 @@
     </row>
     <row r="919" spans="1:21" ht="13.5" customHeight="1">
       <c r="A919" s="15"/>
-      <c r="B919" s="32"/>
-      <c r="C919" s="33"/>
+      <c r="B919" s="23"/>
+      <c r="C919" s="24"/>
       <c r="D919" s="8" t="s">
         <v>26</v>
       </c>
@@ -41527,8 +41528,8 @@
     </row>
     <row r="920" spans="1:21" ht="13.5" customHeight="1">
       <c r="A920" s="15"/>
-      <c r="B920" s="32"/>
-      <c r="C920" s="33"/>
+      <c r="B920" s="23"/>
+      <c r="C920" s="24"/>
       <c r="D920" s="8" t="s">
         <v>27</v>
       </c>
@@ -41586,8 +41587,8 @@
     </row>
     <row r="921" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A921" s="15"/>
-      <c r="B921" s="34"/>
-      <c r="C921" s="35"/>
+      <c r="B921" s="25"/>
+      <c r="C921" s="26"/>
       <c r="D921" s="11" t="s">
         <v>28</v>
       </c>
@@ -41646,7 +41647,7 @@
     <row r="922" spans="1:21" ht="13.5" customHeight="1">
       <c r="A922" s="15"/>
       <c r="C922" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D922" s="5" t="s">
         <v>23</v>
@@ -41996,7 +41997,7 @@
     <row r="928" spans="1:21" ht="13.5" customHeight="1">
       <c r="A928" s="15"/>
       <c r="C928" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D928" s="5" t="s">
         <v>23</v>
@@ -42346,7 +42347,7 @@
     <row r="934" spans="1:21" ht="13.5" customHeight="1">
       <c r="A934" s="15"/>
       <c r="C934" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D934" s="5" t="s">
         <v>23</v>
@@ -42696,7 +42697,7 @@
     <row r="940" spans="1:21" ht="13.5" customHeight="1">
       <c r="A940" s="15"/>
       <c r="C940" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D940" s="5" t="s">
         <v>23</v>
@@ -43046,7 +43047,7 @@
     <row r="946" spans="1:21" ht="13.5" customHeight="1">
       <c r="A946" s="15"/>
       <c r="C946" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D946" s="5" t="s">
         <v>23</v>
@@ -43396,7 +43397,7 @@
     <row r="952" spans="1:21" ht="13.5" customHeight="1">
       <c r="A952" s="15"/>
       <c r="C952" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D952" s="5" t="s">
         <v>23</v>
@@ -43746,7 +43747,7 @@
     <row r="958" spans="1:21" ht="13.5" customHeight="1">
       <c r="A958" s="15"/>
       <c r="C958" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D958" s="5" t="s">
         <v>23</v>
@@ -44096,7 +44097,7 @@
     <row r="964" spans="1:21" ht="13.5" customHeight="1">
       <c r="A964" s="15"/>
       <c r="C964" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D964" s="5" t="s">
         <v>23</v>
@@ -44522,7 +44523,7 @@
     <row r="973" spans="1:21" ht="13.5" customHeight="1">
       <c r="A973" s="14"/>
       <c r="C973" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D973" s="5" t="s">
         <v>23</v>
@@ -44639,10 +44640,10 @@
     </row>
     <row r="975" spans="1:21" ht="13.5" customHeight="1">
       <c r="A975" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B975" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C975" s="19"/>
       <c r="D975" s="8" t="s">
@@ -44999,11 +45000,11 @@
       </c>
     </row>
     <row r="1030" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A1030" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1030" s="22"/>
-      <c r="C1030" s="23"/>
+      <c r="A1030" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1030" s="28"/>
+      <c r="C1030" s="29"/>
       <c r="D1030" s="5" t="s">
         <v>23</v>
       </c>
@@ -45060,9 +45061,9 @@
       </c>
     </row>
     <row r="1031" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A1031" s="24"/>
-      <c r="B1031" s="25"/>
-      <c r="C1031" s="26"/>
+      <c r="A1031" s="30"/>
+      <c r="B1031" s="31"/>
+      <c r="C1031" s="32"/>
       <c r="D1031" s="8" t="s">
         <v>24</v>
       </c>
@@ -45119,9 +45120,9 @@
       </c>
     </row>
     <row r="1032" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A1032" s="24"/>
-      <c r="B1032" s="25"/>
-      <c r="C1032" s="26"/>
+      <c r="A1032" s="30"/>
+      <c r="B1032" s="31"/>
+      <c r="C1032" s="32"/>
       <c r="D1032" s="8" t="s">
         <v>25</v>
       </c>
@@ -45178,9 +45179,9 @@
       </c>
     </row>
     <row r="1033" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A1033" s="24"/>
-      <c r="B1033" s="25"/>
-      <c r="C1033" s="26"/>
+      <c r="A1033" s="30"/>
+      <c r="B1033" s="31"/>
+      <c r="C1033" s="32"/>
       <c r="D1033" s="8" t="s">
         <v>26</v>
       </c>
@@ -45237,9 +45238,9 @@
       </c>
     </row>
     <row r="1034" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A1034" s="24"/>
-      <c r="B1034" s="25"/>
-      <c r="C1034" s="26"/>
+      <c r="A1034" s="30"/>
+      <c r="B1034" s="31"/>
+      <c r="C1034" s="32"/>
       <c r="D1034" s="8" t="s">
         <v>27</v>
       </c>
@@ -45296,9 +45297,9 @@
       </c>
     </row>
     <row r="1035" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1035" s="27"/>
-      <c r="B1035" s="28"/>
-      <c r="C1035" s="29"/>
+      <c r="A1035" s="33"/>
+      <c r="B1035" s="34"/>
+      <c r="C1035" s="35"/>
       <c r="D1035" s="11" t="s">
         <v>28</v>
       </c>
@@ -45356,10 +45357,10 @@
     </row>
     <row r="1036" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1036" s="14"/>
-      <c r="B1036" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1036" s="31"/>
+      <c r="B1036" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1036" s="22"/>
       <c r="D1036" s="5" t="s">
         <v>23</v>
       </c>
@@ -45417,8 +45418,8 @@
     </row>
     <row r="1037" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1037" s="15"/>
-      <c r="B1037" s="32"/>
-      <c r="C1037" s="33"/>
+      <c r="B1037" s="23"/>
+      <c r="C1037" s="24"/>
       <c r="D1037" s="8" t="s">
         <v>24</v>
       </c>
@@ -45476,8 +45477,8 @@
     </row>
     <row r="1038" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1038" s="15"/>
-      <c r="B1038" s="32"/>
-      <c r="C1038" s="33"/>
+      <c r="B1038" s="23"/>
+      <c r="C1038" s="24"/>
       <c r="D1038" s="8" t="s">
         <v>25</v>
       </c>
@@ -45535,8 +45536,8 @@
     </row>
     <row r="1039" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1039" s="15"/>
-      <c r="B1039" s="32"/>
-      <c r="C1039" s="33"/>
+      <c r="B1039" s="23"/>
+      <c r="C1039" s="24"/>
       <c r="D1039" s="8" t="s">
         <v>26</v>
       </c>
@@ -45594,8 +45595,8 @@
     </row>
     <row r="1040" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1040" s="15"/>
-      <c r="B1040" s="32"/>
-      <c r="C1040" s="33"/>
+      <c r="B1040" s="23"/>
+      <c r="C1040" s="24"/>
       <c r="D1040" s="8" t="s">
         <v>27</v>
       </c>
@@ -45653,8 +45654,8 @@
     </row>
     <row r="1041" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1041" s="15"/>
-      <c r="B1041" s="34"/>
-      <c r="C1041" s="35"/>
+      <c r="B1041" s="25"/>
+      <c r="C1041" s="26"/>
       <c r="D1041" s="11" t="s">
         <v>28</v>
       </c>
@@ -45713,7 +45714,7 @@
     <row r="1042" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1042" s="15"/>
       <c r="C1042" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D1042" s="5" t="s">
         <v>23</v>
@@ -46063,7 +46064,7 @@
     <row r="1048" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1048" s="15"/>
       <c r="C1048" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D1048" s="5" t="s">
         <v>23</v>
@@ -46413,7 +46414,7 @@
     <row r="1054" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1054" s="15"/>
       <c r="C1054" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D1054" s="5" t="s">
         <v>23</v>
@@ -46763,7 +46764,7 @@
     <row r="1060" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1060" s="15"/>
       <c r="C1060" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D1060" s="5" t="s">
         <v>23</v>
@@ -47113,7 +47114,7 @@
     <row r="1066" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1066" s="15"/>
       <c r="C1066" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D1066" s="5" t="s">
         <v>23</v>
@@ -47463,7 +47464,7 @@
     <row r="1072" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1072" s="15"/>
       <c r="C1072" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D1072" s="5" t="s">
         <v>23</v>
@@ -47813,7 +47814,7 @@
     <row r="1078" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1078" s="15"/>
       <c r="C1078" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D1078" s="5" t="s">
         <v>23</v>
@@ -48239,7 +48240,7 @@
     <row r="1087" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1087" s="14"/>
       <c r="C1087" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D1087" s="5" t="s">
         <v>23</v>
@@ -48356,10 +48357,10 @@
     </row>
     <row r="1089" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1089" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1089" t="s">
         <v>166</v>
-      </c>
-      <c r="B1089" t="s">
-        <v>167</v>
       </c>
       <c r="C1089" s="19"/>
       <c r="D1089" s="8" t="s">
@@ -48594,7 +48595,7 @@
     <row r="1093" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1093" s="15"/>
       <c r="C1093" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D1093" s="5" t="s">
         <v>23</v>
@@ -48944,7 +48945,7 @@
     <row r="1099" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1099" s="15"/>
       <c r="C1099" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D1099" s="5" t="s">
         <v>23</v>
@@ -49294,7 +49295,7 @@
     <row r="1105" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1105" s="15"/>
       <c r="C1105" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D1105" s="5" t="s">
         <v>23</v>
@@ -49644,7 +49645,7 @@
     <row r="1111" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1111" s="15"/>
       <c r="C1111" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D1111" s="5" t="s">
         <v>23</v>
@@ -49994,7 +49995,7 @@
     <row r="1117" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1117" s="15"/>
       <c r="C1117" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D1117" s="5" t="s">
         <v>23</v>
@@ -50344,7 +50345,7 @@
     <row r="1123" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1123" s="15"/>
       <c r="C1123" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D1123" s="5" t="s">
         <v>23</v>
@@ -50694,7 +50695,7 @@
     <row r="1129" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1129" s="15"/>
       <c r="C1129" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D1129" s="5" t="s">
         <v>23</v>
@@ -51044,7 +51045,7 @@
     <row r="1135" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1135" s="15"/>
       <c r="C1135" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D1135" s="5" t="s">
         <v>23</v>
@@ -51470,7 +51471,7 @@
     <row r="1144" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1144" s="14"/>
       <c r="C1144" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D1144" s="5" t="s">
         <v>23</v>
@@ -51587,10 +51588,10 @@
     </row>
     <row r="1146" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1146" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1146" t="s">
         <v>166</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>167</v>
       </c>
       <c r="C1146" s="19"/>
       <c r="D1146" s="8" t="s">
@@ -51825,7 +51826,7 @@
     <row r="1150" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1150" s="15"/>
       <c r="C1150" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D1150" s="5" t="s">
         <v>23</v>
@@ -52175,7 +52176,7 @@
     <row r="1156" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1156" s="15"/>
       <c r="C1156" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D1156" s="5" t="s">
         <v>23</v>
@@ -52525,7 +52526,7 @@
     <row r="1162" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1162" s="15"/>
       <c r="C1162" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D1162" s="5" t="s">
         <v>23</v>
@@ -52875,7 +52876,7 @@
     <row r="1168" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1168" s="15"/>
       <c r="C1168" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D1168" s="5" t="s">
         <v>23</v>
@@ -53225,7 +53226,7 @@
     <row r="1174" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1174" s="15"/>
       <c r="C1174" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D1174" s="5" t="s">
         <v>23</v>
@@ -53575,7 +53576,7 @@
     <row r="1180" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1180" s="15"/>
       <c r="C1180" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D1180" s="5" t="s">
         <v>23</v>
@@ -53925,7 +53926,7 @@
     <row r="1186" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1186" s="15"/>
       <c r="C1186" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D1186" s="5" t="s">
         <v>23</v>
@@ -54356,10 +54357,10 @@
     </row>
     <row r="1201" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1201" s="14"/>
-      <c r="B1201" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1201" s="31"/>
+      <c r="B1201" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1201" s="22"/>
       <c r="D1201" s="5" t="s">
         <v>23</v>
       </c>
@@ -54417,8 +54418,8 @@
     </row>
     <row r="1202" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1202" s="15"/>
-      <c r="B1202" s="32"/>
-      <c r="C1202" s="33"/>
+      <c r="B1202" s="23"/>
+      <c r="C1202" s="24"/>
       <c r="D1202" s="8" t="s">
         <v>24</v>
       </c>
@@ -54476,10 +54477,10 @@
     </row>
     <row r="1203" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1203" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1203" s="32"/>
-      <c r="C1203" s="33"/>
+        <v>165</v>
+      </c>
+      <c r="B1203" s="23"/>
+      <c r="C1203" s="24"/>
       <c r="D1203" s="8" t="s">
         <v>25</v>
       </c>
@@ -54537,8 +54538,8 @@
     </row>
     <row r="1204" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1204" s="15"/>
-      <c r="B1204" s="32"/>
-      <c r="C1204" s="33"/>
+      <c r="B1204" s="23"/>
+      <c r="C1204" s="24"/>
       <c r="D1204" s="8" t="s">
         <v>26</v>
       </c>
@@ -54596,8 +54597,8 @@
     </row>
     <row r="1205" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1205" s="15"/>
-      <c r="B1205" s="32"/>
-      <c r="C1205" s="33"/>
+      <c r="B1205" s="23"/>
+      <c r="C1205" s="24"/>
       <c r="D1205" s="8" t="s">
         <v>27</v>
       </c>
@@ -54655,8 +54656,8 @@
     </row>
     <row r="1206" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1206" s="15"/>
-      <c r="B1206" s="34"/>
-      <c r="C1206" s="35"/>
+      <c r="B1206" s="25"/>
+      <c r="C1206" s="26"/>
       <c r="D1206" s="11" t="s">
         <v>28</v>
       </c>
@@ -54715,7 +54716,7 @@
     <row r="1207" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1207" s="15"/>
       <c r="C1207" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D1207" s="5" t="s">
         <v>23</v>
@@ -55065,7 +55066,7 @@
     <row r="1213" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1213" s="15"/>
       <c r="C1213" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D1213" s="5" t="s">
         <v>23</v>
@@ -55415,7 +55416,7 @@
     <row r="1219" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1219" s="15"/>
       <c r="C1219" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1219" s="5" t="s">
         <v>23</v>
@@ -55765,7 +55766,7 @@
     <row r="1225" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1225" s="15"/>
       <c r="C1225" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1225" s="5" t="s">
         <v>23</v>
@@ -56115,7 +56116,7 @@
     <row r="1231" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1231" s="15"/>
       <c r="C1231" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D1231" s="5" t="s">
         <v>23</v>
@@ -56465,7 +56466,7 @@
     <row r="1237" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1237" s="15"/>
       <c r="C1237" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D1237" s="5" t="s">
         <v>23</v>
@@ -56815,7 +56816,7 @@
     <row r="1243" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1243" s="15"/>
       <c r="C1243" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D1243" s="5" t="s">
         <v>23</v>
@@ -57165,7 +57166,7 @@
     <row r="1249" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1249" s="15"/>
       <c r="C1249" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D1249" s="5" t="s">
         <v>23</v>
@@ -57591,7 +57592,7 @@
     <row r="1258" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1258" s="14"/>
       <c r="C1258" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D1258" s="5" t="s">
         <v>23</v>
@@ -57708,10 +57709,10 @@
     </row>
     <row r="1260" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1260" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1260" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C1260" s="19"/>
       <c r="D1260" s="8" t="s">
@@ -58069,10 +58070,10 @@
     </row>
     <row r="1315" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1315" s="14"/>
-      <c r="B1315" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="C1315" s="31"/>
+      <c r="B1315" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1315" s="22"/>
       <c r="D1315" s="5" t="s">
         <v>23</v>
       </c>
@@ -58130,8 +58131,8 @@
     </row>
     <row r="1316" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1316" s="15"/>
-      <c r="B1316" s="32"/>
-      <c r="C1316" s="33"/>
+      <c r="B1316" s="23"/>
+      <c r="C1316" s="24"/>
       <c r="D1316" s="8" t="s">
         <v>24</v>
       </c>
@@ -58189,10 +58190,10 @@
     </row>
     <row r="1317" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1317" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1317" s="32"/>
-      <c r="C1317" s="33"/>
+        <v>165</v>
+      </c>
+      <c r="B1317" s="23"/>
+      <c r="C1317" s="24"/>
       <c r="D1317" s="8" t="s">
         <v>25</v>
       </c>
@@ -58250,8 +58251,8 @@
     </row>
     <row r="1318" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1318" s="15"/>
-      <c r="B1318" s="32"/>
-      <c r="C1318" s="33"/>
+      <c r="B1318" s="23"/>
+      <c r="C1318" s="24"/>
       <c r="D1318" s="8" t="s">
         <v>26</v>
       </c>
@@ -58309,8 +58310,8 @@
     </row>
     <row r="1319" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1319" s="15"/>
-      <c r="B1319" s="32"/>
-      <c r="C1319" s="33"/>
+      <c r="B1319" s="23"/>
+      <c r="C1319" s="24"/>
       <c r="D1319" s="8" t="s">
         <v>27</v>
       </c>
@@ -58368,8 +58369,8 @@
     </row>
     <row r="1320" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1320" s="15"/>
-      <c r="B1320" s="34"/>
-      <c r="C1320" s="35"/>
+      <c r="B1320" s="25"/>
+      <c r="C1320" s="26"/>
       <c r="D1320" s="11" t="s">
         <v>28</v>
       </c>
@@ -58428,7 +58429,7 @@
     <row r="1321" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1321" s="15"/>
       <c r="C1321" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D1321" s="5" t="s">
         <v>23</v>
@@ -58778,7 +58779,7 @@
     <row r="1327" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1327" s="15"/>
       <c r="C1327" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D1327" s="5" t="s">
         <v>23</v>
@@ -59128,7 +59129,7 @@
     <row r="1333" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1333" s="15"/>
       <c r="C1333" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D1333" s="5" t="s">
         <v>23</v>
@@ -59478,7 +59479,7 @@
     <row r="1339" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1339" s="15"/>
       <c r="C1339" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D1339" s="5" t="s">
         <v>23</v>
@@ -59828,7 +59829,7 @@
     <row r="1345" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1345" s="15"/>
       <c r="C1345" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D1345" s="5" t="s">
         <v>23</v>
@@ -60178,7 +60179,7 @@
     <row r="1351" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1351" s="15"/>
       <c r="C1351" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D1351" s="5" t="s">
         <v>23</v>
@@ -60528,7 +60529,7 @@
     <row r="1357" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1357" s="15"/>
       <c r="C1357" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D1357" s="5" t="s">
         <v>23</v>
@@ -60878,7 +60879,7 @@
     <row r="1363" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1363" s="15"/>
       <c r="C1363" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D1363" s="5" t="s">
         <v>23</v>
@@ -61304,7 +61305,7 @@
     <row r="1372" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1372" s="14"/>
       <c r="C1372" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D1372" s="5" t="s">
         <v>23</v>
@@ -61421,10 +61422,10 @@
     </row>
     <row r="1374" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1374" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1374" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C1374" s="19"/>
       <c r="D1374" s="8" t="s">
@@ -61659,7 +61660,7 @@
     <row r="1378" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1378" s="15"/>
       <c r="C1378" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D1378" s="5" t="s">
         <v>23</v>
@@ -62125,11 +62126,11 @@
       </c>
     </row>
     <row r="1429" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A1429" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1429" s="22"/>
-      <c r="C1429" s="23"/>
+      <c r="A1429" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1429" s="28"/>
+      <c r="C1429" s="29"/>
       <c r="D1429" s="5" t="s">
         <v>23</v>
       </c>
@@ -62186,9 +62187,9 @@
       </c>
     </row>
     <row r="1430" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A1430" s="24"/>
-      <c r="B1430" s="25"/>
-      <c r="C1430" s="26"/>
+      <c r="A1430" s="30"/>
+      <c r="B1430" s="31"/>
+      <c r="C1430" s="32"/>
       <c r="D1430" s="8" t="s">
         <v>24</v>
       </c>
@@ -62245,9 +62246,9 @@
       </c>
     </row>
     <row r="1431" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A1431" s="24"/>
-      <c r="B1431" s="25"/>
-      <c r="C1431" s="26"/>
+      <c r="A1431" s="30"/>
+      <c r="B1431" s="31"/>
+      <c r="C1431" s="32"/>
       <c r="D1431" s="8" t="s">
         <v>25</v>
       </c>
@@ -62304,9 +62305,9 @@
       </c>
     </row>
     <row r="1432" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A1432" s="24"/>
-      <c r="B1432" s="25"/>
-      <c r="C1432" s="26"/>
+      <c r="A1432" s="30"/>
+      <c r="B1432" s="31"/>
+      <c r="C1432" s="32"/>
       <c r="D1432" s="8" t="s">
         <v>26</v>
       </c>
@@ -62363,9 +62364,9 @@
       </c>
     </row>
     <row r="1433" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A1433" s="24"/>
-      <c r="B1433" s="25"/>
-      <c r="C1433" s="26"/>
+      <c r="A1433" s="30"/>
+      <c r="B1433" s="31"/>
+      <c r="C1433" s="32"/>
       <c r="D1433" s="8" t="s">
         <v>27</v>
       </c>
@@ -62422,9 +62423,9 @@
       </c>
     </row>
     <row r="1434" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1434" s="27"/>
-      <c r="B1434" s="28"/>
-      <c r="C1434" s="29"/>
+      <c r="A1434" s="33"/>
+      <c r="B1434" s="34"/>
+      <c r="C1434" s="35"/>
       <c r="D1434" s="11" t="s">
         <v>28</v>
       </c>
@@ -62482,10 +62483,10 @@
     </row>
     <row r="1435" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1435" s="14"/>
-      <c r="B1435" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1435" s="31"/>
+      <c r="B1435" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1435" s="22"/>
       <c r="D1435" s="5" t="s">
         <v>23</v>
       </c>
@@ -62543,8 +62544,8 @@
     </row>
     <row r="1436" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1436" s="15"/>
-      <c r="B1436" s="32"/>
-      <c r="C1436" s="33"/>
+      <c r="B1436" s="23"/>
+      <c r="C1436" s="24"/>
       <c r="D1436" s="8" t="s">
         <v>24</v>
       </c>
@@ -62602,8 +62603,8 @@
     </row>
     <row r="1437" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1437" s="15"/>
-      <c r="B1437" s="32"/>
-      <c r="C1437" s="33"/>
+      <c r="B1437" s="23"/>
+      <c r="C1437" s="24"/>
       <c r="D1437" s="8" t="s">
         <v>25</v>
       </c>
@@ -62661,8 +62662,8 @@
     </row>
     <row r="1438" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1438" s="15"/>
-      <c r="B1438" s="32"/>
-      <c r="C1438" s="33"/>
+      <c r="B1438" s="23"/>
+      <c r="C1438" s="24"/>
       <c r="D1438" s="8" t="s">
         <v>26</v>
       </c>
@@ -62720,8 +62721,8 @@
     </row>
     <row r="1439" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1439" s="15"/>
-      <c r="B1439" s="32"/>
-      <c r="C1439" s="33"/>
+      <c r="B1439" s="23"/>
+      <c r="C1439" s="24"/>
       <c r="D1439" s="8" t="s">
         <v>27</v>
       </c>
@@ -62779,8 +62780,8 @@
     </row>
     <row r="1440" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1440" s="15"/>
-      <c r="B1440" s="34"/>
-      <c r="C1440" s="35"/>
+      <c r="B1440" s="25"/>
+      <c r="C1440" s="26"/>
       <c r="D1440" s="11" t="s">
         <v>28</v>
       </c>
@@ -62839,7 +62840,7 @@
     <row r="1441" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1441" s="15"/>
       <c r="C1441" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D1441" s="5" t="s">
         <v>23</v>
@@ -63189,7 +63190,7 @@
     <row r="1447" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1447" s="15"/>
       <c r="C1447" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D1447" s="5" t="s">
         <v>23</v>
@@ -63539,7 +63540,7 @@
     <row r="1453" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1453" s="15"/>
       <c r="C1453" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D1453" s="5" t="s">
         <v>23</v>
@@ -63889,7 +63890,7 @@
     <row r="1459" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1459" s="15"/>
       <c r="C1459" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D1459" s="5" t="s">
         <v>23</v>
@@ -64239,7 +64240,7 @@
     <row r="1465" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1465" s="15"/>
       <c r="C1465" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D1465" s="5" t="s">
         <v>23</v>
@@ -64589,7 +64590,7 @@
     <row r="1471" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1471" s="15"/>
       <c r="C1471" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D1471" s="5" t="s">
         <v>23</v>
@@ -64939,7 +64940,7 @@
     <row r="1477" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1477" s="15"/>
       <c r="C1477" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D1477" s="5" t="s">
         <v>23</v>
@@ -65365,7 +65366,7 @@
     <row r="1486" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1486" s="14"/>
       <c r="C1486" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D1486" s="5" t="s">
         <v>23</v>
@@ -65482,10 +65483,10 @@
     </row>
     <row r="1488" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1488" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1488" t="s">
         <v>217</v>
-      </c>
-      <c r="B1488" t="s">
-        <v>218</v>
       </c>
       <c r="C1488" s="19"/>
       <c r="D1488" s="8" t="s">
@@ -65545,7 +65546,7 @@
     </row>
     <row r="1489" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1489" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C1489" s="19"/>
       <c r="D1489" s="8" t="s">
@@ -65722,7 +65723,7 @@
     <row r="1492" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1492" s="15"/>
       <c r="C1492" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D1492" s="5" t="s">
         <v>23</v>
@@ -66072,7 +66073,7 @@
     <row r="1498" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1498" s="15"/>
       <c r="C1498" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1498" s="5" t="s">
         <v>23</v>
@@ -66422,7 +66423,7 @@
     <row r="1504" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1504" s="15"/>
       <c r="C1504" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D1504" s="5" t="s">
         <v>23</v>
@@ -66772,7 +66773,7 @@
     <row r="1510" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1510" s="15"/>
       <c r="C1510" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D1510" s="5" t="s">
         <v>23</v>
@@ -67116,7 +67117,7 @@
     <row r="1516" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1516" s="15"/>
       <c r="C1516" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D1516" s="5" t="s">
         <v>23</v>
@@ -67466,7 +67467,7 @@
     <row r="1522" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1522" s="15"/>
       <c r="C1522" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D1522" s="5" t="s">
         <v>23</v>
@@ -67816,7 +67817,7 @@
     <row r="1528" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1528" s="15"/>
       <c r="C1528" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D1528" s="5" t="s">
         <v>23</v>
@@ -68166,7 +68167,7 @@
     <row r="1534" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1534" s="15"/>
       <c r="C1534" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D1534" s="5" t="s">
         <v>23</v>
@@ -68592,7 +68593,7 @@
     <row r="1543" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1543" s="14"/>
       <c r="C1543" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D1543" s="5" t="s">
         <v>23</v>
@@ -68709,10 +68710,10 @@
     </row>
     <row r="1545" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1545" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1545" t="s">
         <v>217</v>
-      </c>
-      <c r="B1545" t="s">
-        <v>218</v>
       </c>
       <c r="C1545" s="19"/>
       <c r="D1545" s="8" t="s">
@@ -68772,7 +68773,7 @@
     </row>
     <row r="1546" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1546" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C1546" s="19"/>
       <c r="D1546" s="8" t="s">
@@ -68949,7 +68950,7 @@
     <row r="1549" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1549" s="15"/>
       <c r="C1549" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D1549" s="5" t="s">
         <v>23</v>
@@ -69299,7 +69300,7 @@
     <row r="1555" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1555" s="15"/>
       <c r="C1555" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D1555" s="5" t="s">
         <v>23</v>
@@ -69649,7 +69650,7 @@
     <row r="1561" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1561" s="15"/>
       <c r="C1561" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D1561" s="5" t="s">
         <v>23</v>
@@ -69999,7 +70000,7 @@
     <row r="1567" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1567" s="15"/>
       <c r="C1567" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D1567" s="5" t="s">
         <v>23</v>
@@ -70349,7 +70350,7 @@
     <row r="1573" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1573" s="15"/>
       <c r="C1573" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D1573" s="5" t="s">
         <v>23</v>
@@ -70699,7 +70700,7 @@
     <row r="1579" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1579" s="15"/>
       <c r="C1579" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D1579" s="5" t="s">
         <v>23</v>
@@ -71049,7 +71050,7 @@
     <row r="1585" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1585" s="15"/>
       <c r="C1585" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D1585" s="5" t="s">
         <v>23</v>
@@ -71397,7 +71398,7 @@
     <row r="1591" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1591" s="15"/>
       <c r="C1591" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D1591" s="5" t="s">
         <v>23</v>
@@ -71823,7 +71824,7 @@
     <row r="1600" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1600" s="14"/>
       <c r="C1600" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D1600" s="5" t="s">
         <v>23</v>
@@ -71940,10 +71941,10 @@
     </row>
     <row r="1602" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1602" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1602" t="s">
         <v>217</v>
-      </c>
-      <c r="B1602" t="s">
-        <v>218</v>
       </c>
       <c r="C1602" s="19"/>
       <c r="D1602" s="8" t="s">
@@ -72003,7 +72004,7 @@
     </row>
     <row r="1603" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1603" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C1603" s="19"/>
       <c r="D1603" s="8" t="s">
@@ -72302,11 +72303,11 @@
       </c>
     </row>
     <row r="1657" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A1657" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1657" s="22"/>
-      <c r="C1657" s="23"/>
+      <c r="A1657" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1657" s="28"/>
+      <c r="C1657" s="29"/>
       <c r="D1657" s="5" t="s">
         <v>23</v>
       </c>
@@ -72363,9 +72364,9 @@
       </c>
     </row>
     <row r="1658" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A1658" s="24"/>
-      <c r="B1658" s="25"/>
-      <c r="C1658" s="26"/>
+      <c r="A1658" s="30"/>
+      <c r="B1658" s="31"/>
+      <c r="C1658" s="32"/>
       <c r="D1658" s="8" t="s">
         <v>24</v>
       </c>
@@ -72422,9 +72423,9 @@
       </c>
     </row>
     <row r="1659" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A1659" s="24"/>
-      <c r="B1659" s="25"/>
-      <c r="C1659" s="26"/>
+      <c r="A1659" s="30"/>
+      <c r="B1659" s="31"/>
+      <c r="C1659" s="32"/>
       <c r="D1659" s="8" t="s">
         <v>25</v>
       </c>
@@ -72481,9 +72482,9 @@
       </c>
     </row>
     <row r="1660" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A1660" s="24"/>
-      <c r="B1660" s="25"/>
-      <c r="C1660" s="26"/>
+      <c r="A1660" s="30"/>
+      <c r="B1660" s="31"/>
+      <c r="C1660" s="32"/>
       <c r="D1660" s="8" t="s">
         <v>26</v>
       </c>
@@ -72540,9 +72541,9 @@
       </c>
     </row>
     <row r="1661" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A1661" s="24"/>
-      <c r="B1661" s="25"/>
-      <c r="C1661" s="26"/>
+      <c r="A1661" s="30"/>
+      <c r="B1661" s="31"/>
+      <c r="C1661" s="32"/>
       <c r="D1661" s="8" t="s">
         <v>27</v>
       </c>
@@ -72599,9 +72600,9 @@
       </c>
     </row>
     <row r="1662" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1662" s="27"/>
-      <c r="B1662" s="28"/>
-      <c r="C1662" s="29"/>
+      <c r="A1662" s="33"/>
+      <c r="B1662" s="34"/>
+      <c r="C1662" s="35"/>
       <c r="D1662" s="11" t="s">
         <v>28</v>
       </c>
@@ -72659,10 +72660,10 @@
     </row>
     <row r="1663" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1663" s="14"/>
-      <c r="B1663" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="C1663" s="31"/>
+      <c r="B1663" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1663" s="22"/>
       <c r="D1663" s="5" t="s">
         <v>23</v>
       </c>
@@ -72720,8 +72721,8 @@
     </row>
     <row r="1664" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1664" s="15"/>
-      <c r="B1664" s="32"/>
-      <c r="C1664" s="33"/>
+      <c r="B1664" s="23"/>
+      <c r="C1664" s="24"/>
       <c r="D1664" s="8" t="s">
         <v>24</v>
       </c>
@@ -72779,8 +72780,8 @@
     </row>
     <row r="1665" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1665" s="15"/>
-      <c r="B1665" s="32"/>
-      <c r="C1665" s="33"/>
+      <c r="B1665" s="23"/>
+      <c r="C1665" s="24"/>
       <c r="D1665" s="8" t="s">
         <v>25</v>
       </c>
@@ -72838,8 +72839,8 @@
     </row>
     <row r="1666" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1666" s="15"/>
-      <c r="B1666" s="32"/>
-      <c r="C1666" s="33"/>
+      <c r="B1666" s="23"/>
+      <c r="C1666" s="24"/>
       <c r="D1666" s="8" t="s">
         <v>26</v>
       </c>
@@ -72897,8 +72898,8 @@
     </row>
     <row r="1667" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1667" s="15"/>
-      <c r="B1667" s="32"/>
-      <c r="C1667" s="33"/>
+      <c r="B1667" s="23"/>
+      <c r="C1667" s="24"/>
       <c r="D1667" s="8" t="s">
         <v>27</v>
       </c>
@@ -72956,8 +72957,8 @@
     </row>
     <row r="1668" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1668" s="15"/>
-      <c r="B1668" s="34"/>
-      <c r="C1668" s="35"/>
+      <c r="B1668" s="25"/>
+      <c r="C1668" s="26"/>
       <c r="D1668" s="11" t="s">
         <v>28</v>
       </c>
@@ -73016,7 +73017,7 @@
     <row r="1669" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1669" s="15"/>
       <c r="C1669" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D1669" s="5" t="s">
         <v>23</v>
@@ -73366,7 +73367,7 @@
     <row r="1675" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1675" s="15"/>
       <c r="C1675" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D1675" s="5" t="s">
         <v>23</v>
@@ -73716,7 +73717,7 @@
     <row r="1681" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1681" s="15"/>
       <c r="C1681" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D1681" s="5" t="s">
         <v>23</v>
@@ -74066,7 +74067,7 @@
     <row r="1687" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1687" s="15"/>
       <c r="C1687" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D1687" s="5" t="s">
         <v>23</v>
@@ -74416,7 +74417,7 @@
     <row r="1693" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1693" s="15"/>
       <c r="C1693" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D1693" s="5" t="s">
         <v>23</v>
@@ -74766,7 +74767,7 @@
     <row r="1699" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1699" s="15"/>
       <c r="C1699" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D1699" s="5" t="s">
         <v>23</v>
@@ -75116,7 +75117,7 @@
     <row r="1705" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1705" s="15"/>
       <c r="C1705" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D1705" s="5" t="s">
         <v>23</v>
@@ -75542,7 +75543,7 @@
     <row r="1714" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1714" s="14"/>
       <c r="C1714" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D1714" s="5" t="s">
         <v>23</v>
@@ -75659,10 +75660,10 @@
     </row>
     <row r="1716" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1716" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1716" t="s">
         <v>248</v>
-      </c>
-      <c r="B1716" t="s">
-        <v>249</v>
       </c>
       <c r="C1716" s="19"/>
       <c r="D1716" s="8" t="s">
@@ -75897,7 +75898,7 @@
     <row r="1720" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1720" s="15"/>
       <c r="C1720" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D1720" s="5" t="s">
         <v>23</v>
@@ -76243,7 +76244,7 @@
     <row r="1726" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1726" s="15"/>
       <c r="C1726" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D1726" s="5" t="s">
         <v>23</v>
@@ -76593,7 +76594,7 @@
     <row r="1732" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1732" s="15"/>
       <c r="C1732" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D1732" s="5" t="s">
         <v>23</v>
@@ -76943,7 +76944,7 @@
     <row r="1738" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1738" s="15"/>
       <c r="C1738" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D1738" s="5" t="s">
         <v>23</v>
@@ -77293,7 +77294,7 @@
     <row r="1744" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1744" s="15"/>
       <c r="C1744" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D1744" s="5" t="s">
         <v>23</v>
@@ -77643,7 +77644,7 @@
     <row r="1750" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1750" s="15"/>
       <c r="C1750" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D1750" s="5" t="s">
         <v>23</v>
@@ -77993,7 +77994,7 @@
     <row r="1756" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1756" s="15"/>
       <c r="C1756" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D1756" s="5" t="s">
         <v>23</v>
@@ -78343,7 +78344,7 @@
     <row r="1762" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1762" s="15"/>
       <c r="C1762" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D1762" s="5" t="s">
         <v>23</v>
@@ -78769,7 +78770,7 @@
     <row r="1771" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1771" s="14"/>
       <c r="C1771" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D1771" s="5" t="s">
         <v>23</v>
@@ -78886,10 +78887,10 @@
     </row>
     <row r="1773" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1773" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1773" t="s">
         <v>248</v>
-      </c>
-      <c r="B1773" t="s">
-        <v>249</v>
       </c>
       <c r="C1773" s="19"/>
       <c r="D1773" s="8" t="s">
@@ -79124,7 +79125,7 @@
     <row r="1777" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1777" s="15"/>
       <c r="C1777" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D1777" s="5" t="s">
         <v>23</v>
@@ -79474,7 +79475,7 @@
     <row r="1783" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1783" s="15"/>
       <c r="C1783" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D1783" s="5" t="s">
         <v>23</v>
@@ -79824,7 +79825,7 @@
     <row r="1789" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1789" s="15"/>
       <c r="C1789" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D1789" s="5" t="s">
         <v>23</v>
@@ -80278,11 +80279,11 @@
       </c>
     </row>
     <row r="1828" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A1828" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1828" s="22"/>
-      <c r="C1828" s="23"/>
+      <c r="A1828" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1828" s="28"/>
+      <c r="C1828" s="29"/>
       <c r="D1828" s="5" t="s">
         <v>23</v>
       </c>
@@ -80339,9 +80340,9 @@
       </c>
     </row>
     <row r="1829" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A1829" s="24"/>
-      <c r="B1829" s="25"/>
-      <c r="C1829" s="26"/>
+      <c r="A1829" s="30"/>
+      <c r="B1829" s="31"/>
+      <c r="C1829" s="32"/>
       <c r="D1829" s="8" t="s">
         <v>24</v>
       </c>
@@ -80398,9 +80399,9 @@
       </c>
     </row>
     <row r="1830" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A1830" s="24"/>
-      <c r="B1830" s="25"/>
-      <c r="C1830" s="26"/>
+      <c r="A1830" s="30"/>
+      <c r="B1830" s="31"/>
+      <c r="C1830" s="32"/>
       <c r="D1830" s="8" t="s">
         <v>25</v>
       </c>
@@ -80457,9 +80458,9 @@
       </c>
     </row>
     <row r="1831" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A1831" s="24"/>
-      <c r="B1831" s="25"/>
-      <c r="C1831" s="26"/>
+      <c r="A1831" s="30"/>
+      <c r="B1831" s="31"/>
+      <c r="C1831" s="32"/>
       <c r="D1831" s="8" t="s">
         <v>26</v>
       </c>
@@ -80516,9 +80517,9 @@
       </c>
     </row>
     <row r="1832" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A1832" s="24"/>
-      <c r="B1832" s="25"/>
-      <c r="C1832" s="26"/>
+      <c r="A1832" s="30"/>
+      <c r="B1832" s="31"/>
+      <c r="C1832" s="32"/>
       <c r="D1832" s="8" t="s">
         <v>27</v>
       </c>
@@ -80575,9 +80576,9 @@
       </c>
     </row>
     <row r="1833" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1833" s="27"/>
-      <c r="B1833" s="28"/>
-      <c r="C1833" s="29"/>
+      <c r="A1833" s="33"/>
+      <c r="B1833" s="34"/>
+      <c r="C1833" s="35"/>
       <c r="D1833" s="11" t="s">
         <v>28</v>
       </c>
@@ -80635,10 +80636,10 @@
     </row>
     <row r="1834" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1834" s="14"/>
-      <c r="B1834" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1834" s="31"/>
+      <c r="B1834" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1834" s="22"/>
       <c r="D1834" s="5" t="s">
         <v>23</v>
       </c>
@@ -80696,8 +80697,8 @@
     </row>
     <row r="1835" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1835" s="15"/>
-      <c r="B1835" s="32"/>
-      <c r="C1835" s="33"/>
+      <c r="B1835" s="23"/>
+      <c r="C1835" s="24"/>
       <c r="D1835" s="8" t="s">
         <v>24</v>
       </c>
@@ -80755,8 +80756,8 @@
     </row>
     <row r="1836" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1836" s="15"/>
-      <c r="B1836" s="32"/>
-      <c r="C1836" s="33"/>
+      <c r="B1836" s="23"/>
+      <c r="C1836" s="24"/>
       <c r="D1836" s="8" t="s">
         <v>25</v>
       </c>
@@ -80814,8 +80815,8 @@
     </row>
     <row r="1837" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1837" s="15"/>
-      <c r="B1837" s="32"/>
-      <c r="C1837" s="33"/>
+      <c r="B1837" s="23"/>
+      <c r="C1837" s="24"/>
       <c r="D1837" s="8" t="s">
         <v>26</v>
       </c>
@@ -80873,8 +80874,8 @@
     </row>
     <row r="1838" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1838" s="15"/>
-      <c r="B1838" s="32"/>
-      <c r="C1838" s="33"/>
+      <c r="B1838" s="23"/>
+      <c r="C1838" s="24"/>
       <c r="D1838" s="8" t="s">
         <v>27</v>
       </c>
@@ -80932,8 +80933,8 @@
     </row>
     <row r="1839" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1839" s="15"/>
-      <c r="B1839" s="34"/>
-      <c r="C1839" s="35"/>
+      <c r="B1839" s="25"/>
+      <c r="C1839" s="26"/>
       <c r="D1839" s="11" t="s">
         <v>28</v>
       </c>
@@ -80992,7 +80993,7 @@
     <row r="1840" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1840" s="15"/>
       <c r="C1840" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D1840" s="5" t="s">
         <v>23</v>
@@ -81342,7 +81343,7 @@
     <row r="1846" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1846" s="15"/>
       <c r="C1846" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D1846" s="5" t="s">
         <v>23</v>
@@ -81692,7 +81693,7 @@
     <row r="1852" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1852" s="15"/>
       <c r="C1852" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D1852" s="5" t="s">
         <v>23</v>
@@ -82042,7 +82043,7 @@
     <row r="1858" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1858" s="15"/>
       <c r="C1858" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D1858" s="5" t="s">
         <v>23</v>
@@ -82392,7 +82393,7 @@
     <row r="1864" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1864" s="15"/>
       <c r="C1864" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D1864" s="5" t="s">
         <v>23</v>
@@ -82742,7 +82743,7 @@
     <row r="1870" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1870" s="15"/>
       <c r="C1870" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D1870" s="5" t="s">
         <v>23</v>
@@ -83092,7 +83093,7 @@
     <row r="1876" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1876" s="15"/>
       <c r="C1876" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D1876" s="5" t="s">
         <v>23</v>
@@ -83518,7 +83519,7 @@
     <row r="1885" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1885" s="14"/>
       <c r="C1885" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D1885" s="5" t="s">
         <v>23</v>
@@ -83635,10 +83636,10 @@
     </row>
     <row r="1887" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1887" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1887" t="s">
         <v>272</v>
-      </c>
-      <c r="B1887" t="s">
-        <v>273</v>
       </c>
       <c r="C1887" s="19"/>
       <c r="D1887" s="8" t="s">
@@ -83698,7 +83699,7 @@
     </row>
     <row r="1888" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1888" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C1888" s="19"/>
       <c r="D1888" s="8" t="s">
@@ -83875,7 +83876,7 @@
     <row r="1891" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1891" s="15"/>
       <c r="C1891" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D1891" s="5" t="s">
         <v>23</v>
@@ -84225,7 +84226,7 @@
     <row r="1897" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1897" s="15"/>
       <c r="C1897" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D1897" s="5" t="s">
         <v>23</v>
@@ -84686,10 +84687,10 @@
     </row>
     <row r="1942" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1942" s="14"/>
-      <c r="B1942" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="C1942" s="31"/>
+      <c r="B1942" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1942" s="22"/>
       <c r="D1942" s="5" t="s">
         <v>23</v>
       </c>
@@ -84747,8 +84748,8 @@
     </row>
     <row r="1943" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1943" s="15"/>
-      <c r="B1943" s="32"/>
-      <c r="C1943" s="33"/>
+      <c r="B1943" s="23"/>
+      <c r="C1943" s="24"/>
       <c r="D1943" s="8" t="s">
         <v>24</v>
       </c>
@@ -84806,10 +84807,10 @@
     </row>
     <row r="1944" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1944" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="B1944" s="32"/>
-      <c r="C1944" s="33"/>
+        <v>271</v>
+      </c>
+      <c r="B1944" s="23"/>
+      <c r="C1944" s="24"/>
       <c r="D1944" s="8" t="s">
         <v>25</v>
       </c>
@@ -84867,10 +84868,10 @@
     </row>
     <row r="1945" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1945" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="B1945" s="32"/>
-      <c r="C1945" s="33"/>
+        <v>273</v>
+      </c>
+      <c r="B1945" s="23"/>
+      <c r="C1945" s="24"/>
       <c r="D1945" s="8" t="s">
         <v>26</v>
       </c>
@@ -84928,8 +84929,8 @@
     </row>
     <row r="1946" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1946" s="15"/>
-      <c r="B1946" s="32"/>
-      <c r="C1946" s="33"/>
+      <c r="B1946" s="23"/>
+      <c r="C1946" s="24"/>
       <c r="D1946" s="8" t="s">
         <v>27</v>
       </c>
@@ -84987,8 +84988,8 @@
     </row>
     <row r="1947" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1947" s="15"/>
-      <c r="B1947" s="34"/>
-      <c r="C1947" s="35"/>
+      <c r="B1947" s="25"/>
+      <c r="C1947" s="26"/>
       <c r="D1947" s="11" t="s">
         <v>28</v>
       </c>
@@ -85047,7 +85048,7 @@
     <row r="1948" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1948" s="15"/>
       <c r="C1948" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D1948" s="5" t="s">
         <v>23</v>
@@ -85397,7 +85398,7 @@
     <row r="1954" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1954" s="15"/>
       <c r="C1954" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D1954" s="5" t="s">
         <v>23</v>
@@ -85747,7 +85748,7 @@
     <row r="1960" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1960" s="15"/>
       <c r="C1960" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D1960" s="5" t="s">
         <v>23</v>
@@ -86097,7 +86098,7 @@
     <row r="1966" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1966" s="15"/>
       <c r="C1966" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D1966" s="5" t="s">
         <v>23</v>
@@ -86447,7 +86448,7 @@
     <row r="1972" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1972" s="15"/>
       <c r="C1972" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D1972" s="5" t="s">
         <v>23</v>
@@ -86797,215 +86798,6 @@
     </row>
   </sheetData>
   <mergeCells count="233">
-    <mergeCell ref="C1954:C1959"/>
-    <mergeCell ref="C1960:C1965"/>
-    <mergeCell ref="C1966:C1971"/>
-    <mergeCell ref="C1972:C1977"/>
-    <mergeCell ref="C1885:C1890"/>
-    <mergeCell ref="C1891:C1896"/>
-    <mergeCell ref="C1897:C1902"/>
-    <mergeCell ref="B1942:C1947"/>
-    <mergeCell ref="C1948:C1953"/>
-    <mergeCell ref="C1852:C1857"/>
-    <mergeCell ref="C1858:C1863"/>
-    <mergeCell ref="C1864:C1869"/>
-    <mergeCell ref="C1870:C1875"/>
-    <mergeCell ref="C1876:C1881"/>
-    <mergeCell ref="C1789:C1794"/>
-    <mergeCell ref="A1828:C1833"/>
-    <mergeCell ref="B1834:C1839"/>
-    <mergeCell ref="C1840:C1845"/>
-    <mergeCell ref="C1846:C1851"/>
-    <mergeCell ref="C1756:C1761"/>
-    <mergeCell ref="C1762:C1767"/>
-    <mergeCell ref="C1771:C1776"/>
-    <mergeCell ref="C1777:C1782"/>
-    <mergeCell ref="C1783:C1788"/>
-    <mergeCell ref="C1726:C1731"/>
-    <mergeCell ref="C1732:C1737"/>
-    <mergeCell ref="C1738:C1743"/>
-    <mergeCell ref="C1744:C1749"/>
-    <mergeCell ref="C1750:C1755"/>
-    <mergeCell ref="C1693:C1698"/>
-    <mergeCell ref="C1699:C1704"/>
-    <mergeCell ref="C1705:C1710"/>
-    <mergeCell ref="C1714:C1719"/>
-    <mergeCell ref="C1720:C1725"/>
-    <mergeCell ref="B1663:C1668"/>
-    <mergeCell ref="C1669:C1674"/>
-    <mergeCell ref="C1675:C1680"/>
-    <mergeCell ref="C1681:C1686"/>
-    <mergeCell ref="C1687:C1692"/>
-    <mergeCell ref="C1579:C1584"/>
-    <mergeCell ref="C1585:C1590"/>
-    <mergeCell ref="C1591:C1596"/>
-    <mergeCell ref="C1600:C1605"/>
-    <mergeCell ref="A1657:C1662"/>
-    <mergeCell ref="C1549:C1554"/>
-    <mergeCell ref="C1555:C1560"/>
-    <mergeCell ref="C1561:C1566"/>
-    <mergeCell ref="C1567:C1572"/>
-    <mergeCell ref="C1573:C1578"/>
-    <mergeCell ref="C1516:C1521"/>
-    <mergeCell ref="C1522:C1527"/>
-    <mergeCell ref="C1528:C1533"/>
-    <mergeCell ref="C1534:C1539"/>
-    <mergeCell ref="C1543:C1548"/>
-    <mergeCell ref="C1486:C1491"/>
-    <mergeCell ref="C1492:C1497"/>
-    <mergeCell ref="C1498:C1503"/>
-    <mergeCell ref="C1504:C1509"/>
-    <mergeCell ref="C1510:C1515"/>
-    <mergeCell ref="C1453:C1458"/>
-    <mergeCell ref="C1459:C1464"/>
-    <mergeCell ref="C1465:C1470"/>
-    <mergeCell ref="C1471:C1476"/>
-    <mergeCell ref="C1477:C1482"/>
-    <mergeCell ref="C1378:C1383"/>
-    <mergeCell ref="A1429:C1434"/>
-    <mergeCell ref="B1435:C1440"/>
-    <mergeCell ref="C1441:C1446"/>
-    <mergeCell ref="C1447:C1452"/>
-    <mergeCell ref="C1345:C1350"/>
-    <mergeCell ref="C1351:C1356"/>
-    <mergeCell ref="C1357:C1362"/>
-    <mergeCell ref="C1363:C1368"/>
-    <mergeCell ref="C1372:C1377"/>
-    <mergeCell ref="B1315:C1320"/>
-    <mergeCell ref="C1321:C1326"/>
-    <mergeCell ref="C1327:C1332"/>
-    <mergeCell ref="C1333:C1338"/>
-    <mergeCell ref="C1339:C1344"/>
-    <mergeCell ref="C1231:C1236"/>
-    <mergeCell ref="C1237:C1242"/>
-    <mergeCell ref="C1243:C1248"/>
-    <mergeCell ref="C1249:C1254"/>
-    <mergeCell ref="C1258:C1263"/>
-    <mergeCell ref="B1201:C1206"/>
-    <mergeCell ref="C1207:C1212"/>
-    <mergeCell ref="C1213:C1218"/>
-    <mergeCell ref="C1219:C1224"/>
-    <mergeCell ref="C1225:C1230"/>
-    <mergeCell ref="C1162:C1167"/>
-    <mergeCell ref="C1168:C1173"/>
-    <mergeCell ref="C1174:C1179"/>
-    <mergeCell ref="C1180:C1185"/>
-    <mergeCell ref="C1186:C1191"/>
-    <mergeCell ref="C1129:C1134"/>
-    <mergeCell ref="C1135:C1140"/>
-    <mergeCell ref="C1144:C1149"/>
-    <mergeCell ref="C1150:C1155"/>
-    <mergeCell ref="C1156:C1161"/>
-    <mergeCell ref="C1099:C1104"/>
-    <mergeCell ref="C1105:C1110"/>
-    <mergeCell ref="C1111:C1116"/>
-    <mergeCell ref="C1117:C1122"/>
-    <mergeCell ref="C1123:C1128"/>
-    <mergeCell ref="C1066:C1071"/>
-    <mergeCell ref="C1072:C1077"/>
-    <mergeCell ref="C1078:C1083"/>
-    <mergeCell ref="C1087:C1092"/>
-    <mergeCell ref="C1093:C1098"/>
-    <mergeCell ref="B1036:C1041"/>
-    <mergeCell ref="C1042:C1047"/>
-    <mergeCell ref="C1048:C1053"/>
-    <mergeCell ref="C1054:C1059"/>
-    <mergeCell ref="C1060:C1065"/>
-    <mergeCell ref="C952:C957"/>
-    <mergeCell ref="C958:C963"/>
-    <mergeCell ref="C964:C969"/>
-    <mergeCell ref="C973:C978"/>
-    <mergeCell ref="A1030:C1035"/>
-    <mergeCell ref="C922:C927"/>
-    <mergeCell ref="C928:C933"/>
-    <mergeCell ref="C934:C939"/>
-    <mergeCell ref="C940:C945"/>
-    <mergeCell ref="C946:C951"/>
-    <mergeCell ref="C877:C882"/>
-    <mergeCell ref="C883:C888"/>
-    <mergeCell ref="C889:C894"/>
-    <mergeCell ref="C895:C900"/>
-    <mergeCell ref="B916:C921"/>
-    <mergeCell ref="C844:C849"/>
-    <mergeCell ref="C850:C855"/>
-    <mergeCell ref="C859:C864"/>
-    <mergeCell ref="C865:C870"/>
-    <mergeCell ref="C871:C876"/>
-    <mergeCell ref="C814:C819"/>
-    <mergeCell ref="C820:C825"/>
-    <mergeCell ref="C826:C831"/>
-    <mergeCell ref="C832:C837"/>
-    <mergeCell ref="C838:C843"/>
-    <mergeCell ref="C730:C735"/>
-    <mergeCell ref="C736:C741"/>
-    <mergeCell ref="C745:C750"/>
-    <mergeCell ref="B802:C807"/>
-    <mergeCell ref="C808:C813"/>
-    <mergeCell ref="C700:C705"/>
-    <mergeCell ref="C706:C711"/>
-    <mergeCell ref="C712:C717"/>
-    <mergeCell ref="C718:C723"/>
-    <mergeCell ref="C724:C729"/>
-    <mergeCell ref="C667:C672"/>
-    <mergeCell ref="C673:C678"/>
-    <mergeCell ref="C679:C684"/>
-    <mergeCell ref="C688:C693"/>
-    <mergeCell ref="C694:C699"/>
-    <mergeCell ref="C637:C642"/>
-    <mergeCell ref="C643:C648"/>
-    <mergeCell ref="C649:C654"/>
-    <mergeCell ref="C655:C660"/>
-    <mergeCell ref="C661:C666"/>
-    <mergeCell ref="C604:C609"/>
-    <mergeCell ref="C610:C615"/>
-    <mergeCell ref="C616:C621"/>
-    <mergeCell ref="C622:C627"/>
-    <mergeCell ref="C631:C636"/>
-    <mergeCell ref="B574:C579"/>
-    <mergeCell ref="C580:C585"/>
-    <mergeCell ref="C586:C591"/>
-    <mergeCell ref="C592:C597"/>
-    <mergeCell ref="C598:C603"/>
-    <mergeCell ref="C502:C507"/>
-    <mergeCell ref="C508:C513"/>
-    <mergeCell ref="C517:C522"/>
-    <mergeCell ref="C523:C528"/>
-    <mergeCell ref="C529:C534"/>
-    <mergeCell ref="C472:C477"/>
-    <mergeCell ref="C478:C483"/>
-    <mergeCell ref="C484:C489"/>
-    <mergeCell ref="C490:C495"/>
-    <mergeCell ref="C496:C501"/>
-    <mergeCell ref="C439:C444"/>
-    <mergeCell ref="C445:C450"/>
-    <mergeCell ref="C451:C456"/>
-    <mergeCell ref="C460:C465"/>
-    <mergeCell ref="C466:C471"/>
-    <mergeCell ref="C409:C414"/>
-    <mergeCell ref="C415:C420"/>
-    <mergeCell ref="C421:C426"/>
-    <mergeCell ref="C427:C432"/>
-    <mergeCell ref="C433:C438"/>
-    <mergeCell ref="C346:C351"/>
-    <mergeCell ref="C352:C357"/>
-    <mergeCell ref="C358:C363"/>
-    <mergeCell ref="C364:C369"/>
-    <mergeCell ref="B403:C408"/>
-    <mergeCell ref="C313:C318"/>
-    <mergeCell ref="C319:C324"/>
-    <mergeCell ref="C325:C330"/>
-    <mergeCell ref="C331:C336"/>
-    <mergeCell ref="C337:C342"/>
-    <mergeCell ref="C238:C243"/>
-    <mergeCell ref="A289:C294"/>
-    <mergeCell ref="B295:C300"/>
-    <mergeCell ref="C301:C306"/>
-    <mergeCell ref="C307:C312"/>
-    <mergeCell ref="C205:C210"/>
-    <mergeCell ref="C211:C216"/>
-    <mergeCell ref="C217:C222"/>
-    <mergeCell ref="C223:C228"/>
-    <mergeCell ref="C232:C237"/>
     <mergeCell ref="B175:C180"/>
     <mergeCell ref="C181:C186"/>
     <mergeCell ref="C187:C192"/>
@@ -87030,6 +86822,215 @@
     <mergeCell ref="C97:C102"/>
     <mergeCell ref="C103:C108"/>
     <mergeCell ref="C109:C114"/>
+    <mergeCell ref="C238:C243"/>
+    <mergeCell ref="A289:C294"/>
+    <mergeCell ref="B295:C300"/>
+    <mergeCell ref="C301:C306"/>
+    <mergeCell ref="C307:C312"/>
+    <mergeCell ref="C205:C210"/>
+    <mergeCell ref="C211:C216"/>
+    <mergeCell ref="C217:C222"/>
+    <mergeCell ref="C223:C228"/>
+    <mergeCell ref="C232:C237"/>
+    <mergeCell ref="C346:C351"/>
+    <mergeCell ref="C352:C357"/>
+    <mergeCell ref="C358:C363"/>
+    <mergeCell ref="C364:C369"/>
+    <mergeCell ref="B403:C408"/>
+    <mergeCell ref="C313:C318"/>
+    <mergeCell ref="C319:C324"/>
+    <mergeCell ref="C325:C330"/>
+    <mergeCell ref="C331:C336"/>
+    <mergeCell ref="C337:C342"/>
+    <mergeCell ref="C439:C444"/>
+    <mergeCell ref="C445:C450"/>
+    <mergeCell ref="C451:C456"/>
+    <mergeCell ref="C460:C465"/>
+    <mergeCell ref="C466:C471"/>
+    <mergeCell ref="C409:C414"/>
+    <mergeCell ref="C415:C420"/>
+    <mergeCell ref="C421:C426"/>
+    <mergeCell ref="C427:C432"/>
+    <mergeCell ref="C433:C438"/>
+    <mergeCell ref="C502:C507"/>
+    <mergeCell ref="C508:C513"/>
+    <mergeCell ref="C517:C522"/>
+    <mergeCell ref="C523:C528"/>
+    <mergeCell ref="C529:C534"/>
+    <mergeCell ref="C472:C477"/>
+    <mergeCell ref="C478:C483"/>
+    <mergeCell ref="C484:C489"/>
+    <mergeCell ref="C490:C495"/>
+    <mergeCell ref="C496:C501"/>
+    <mergeCell ref="C604:C609"/>
+    <mergeCell ref="C610:C615"/>
+    <mergeCell ref="C616:C621"/>
+    <mergeCell ref="C622:C627"/>
+    <mergeCell ref="C631:C636"/>
+    <mergeCell ref="B574:C579"/>
+    <mergeCell ref="C580:C585"/>
+    <mergeCell ref="C586:C591"/>
+    <mergeCell ref="C592:C597"/>
+    <mergeCell ref="C598:C603"/>
+    <mergeCell ref="C667:C672"/>
+    <mergeCell ref="C673:C678"/>
+    <mergeCell ref="C679:C684"/>
+    <mergeCell ref="C688:C693"/>
+    <mergeCell ref="C694:C699"/>
+    <mergeCell ref="C637:C642"/>
+    <mergeCell ref="C643:C648"/>
+    <mergeCell ref="C649:C654"/>
+    <mergeCell ref="C655:C660"/>
+    <mergeCell ref="C661:C666"/>
+    <mergeCell ref="C730:C735"/>
+    <mergeCell ref="C736:C741"/>
+    <mergeCell ref="C745:C750"/>
+    <mergeCell ref="B802:C807"/>
+    <mergeCell ref="C808:C813"/>
+    <mergeCell ref="C700:C705"/>
+    <mergeCell ref="C706:C711"/>
+    <mergeCell ref="C712:C717"/>
+    <mergeCell ref="C718:C723"/>
+    <mergeCell ref="C724:C729"/>
+    <mergeCell ref="C844:C849"/>
+    <mergeCell ref="C850:C855"/>
+    <mergeCell ref="C859:C864"/>
+    <mergeCell ref="C865:C870"/>
+    <mergeCell ref="C871:C876"/>
+    <mergeCell ref="C814:C819"/>
+    <mergeCell ref="C820:C825"/>
+    <mergeCell ref="C826:C831"/>
+    <mergeCell ref="C832:C837"/>
+    <mergeCell ref="C838:C843"/>
+    <mergeCell ref="C922:C927"/>
+    <mergeCell ref="C928:C933"/>
+    <mergeCell ref="C934:C939"/>
+    <mergeCell ref="C940:C945"/>
+    <mergeCell ref="C946:C951"/>
+    <mergeCell ref="C877:C882"/>
+    <mergeCell ref="C883:C888"/>
+    <mergeCell ref="C889:C894"/>
+    <mergeCell ref="C895:C900"/>
+    <mergeCell ref="B916:C921"/>
+    <mergeCell ref="B1036:C1041"/>
+    <mergeCell ref="C1042:C1047"/>
+    <mergeCell ref="C1048:C1053"/>
+    <mergeCell ref="C1054:C1059"/>
+    <mergeCell ref="C1060:C1065"/>
+    <mergeCell ref="C952:C957"/>
+    <mergeCell ref="C958:C963"/>
+    <mergeCell ref="C964:C969"/>
+    <mergeCell ref="C973:C978"/>
+    <mergeCell ref="A1030:C1035"/>
+    <mergeCell ref="C1099:C1104"/>
+    <mergeCell ref="C1105:C1110"/>
+    <mergeCell ref="C1111:C1116"/>
+    <mergeCell ref="C1117:C1122"/>
+    <mergeCell ref="C1123:C1128"/>
+    <mergeCell ref="C1066:C1071"/>
+    <mergeCell ref="C1072:C1077"/>
+    <mergeCell ref="C1078:C1083"/>
+    <mergeCell ref="C1087:C1092"/>
+    <mergeCell ref="C1093:C1098"/>
+    <mergeCell ref="C1162:C1167"/>
+    <mergeCell ref="C1168:C1173"/>
+    <mergeCell ref="C1174:C1179"/>
+    <mergeCell ref="C1180:C1185"/>
+    <mergeCell ref="C1186:C1191"/>
+    <mergeCell ref="C1129:C1134"/>
+    <mergeCell ref="C1135:C1140"/>
+    <mergeCell ref="C1144:C1149"/>
+    <mergeCell ref="C1150:C1155"/>
+    <mergeCell ref="C1156:C1161"/>
+    <mergeCell ref="C1231:C1236"/>
+    <mergeCell ref="C1237:C1242"/>
+    <mergeCell ref="C1243:C1248"/>
+    <mergeCell ref="C1249:C1254"/>
+    <mergeCell ref="C1258:C1263"/>
+    <mergeCell ref="B1201:C1206"/>
+    <mergeCell ref="C1207:C1212"/>
+    <mergeCell ref="C1213:C1218"/>
+    <mergeCell ref="C1219:C1224"/>
+    <mergeCell ref="C1225:C1230"/>
+    <mergeCell ref="C1345:C1350"/>
+    <mergeCell ref="C1351:C1356"/>
+    <mergeCell ref="C1357:C1362"/>
+    <mergeCell ref="C1363:C1368"/>
+    <mergeCell ref="C1372:C1377"/>
+    <mergeCell ref="B1315:C1320"/>
+    <mergeCell ref="C1321:C1326"/>
+    <mergeCell ref="C1327:C1332"/>
+    <mergeCell ref="C1333:C1338"/>
+    <mergeCell ref="C1339:C1344"/>
+    <mergeCell ref="C1453:C1458"/>
+    <mergeCell ref="C1459:C1464"/>
+    <mergeCell ref="C1465:C1470"/>
+    <mergeCell ref="C1471:C1476"/>
+    <mergeCell ref="C1477:C1482"/>
+    <mergeCell ref="C1378:C1383"/>
+    <mergeCell ref="A1429:C1434"/>
+    <mergeCell ref="B1435:C1440"/>
+    <mergeCell ref="C1441:C1446"/>
+    <mergeCell ref="C1447:C1452"/>
+    <mergeCell ref="C1516:C1521"/>
+    <mergeCell ref="C1522:C1527"/>
+    <mergeCell ref="C1528:C1533"/>
+    <mergeCell ref="C1534:C1539"/>
+    <mergeCell ref="C1543:C1548"/>
+    <mergeCell ref="C1486:C1491"/>
+    <mergeCell ref="C1492:C1497"/>
+    <mergeCell ref="C1498:C1503"/>
+    <mergeCell ref="C1504:C1509"/>
+    <mergeCell ref="C1510:C1515"/>
+    <mergeCell ref="C1579:C1584"/>
+    <mergeCell ref="C1585:C1590"/>
+    <mergeCell ref="C1591:C1596"/>
+    <mergeCell ref="C1600:C1605"/>
+    <mergeCell ref="A1657:C1662"/>
+    <mergeCell ref="C1549:C1554"/>
+    <mergeCell ref="C1555:C1560"/>
+    <mergeCell ref="C1561:C1566"/>
+    <mergeCell ref="C1567:C1572"/>
+    <mergeCell ref="C1573:C1578"/>
+    <mergeCell ref="C1693:C1698"/>
+    <mergeCell ref="C1699:C1704"/>
+    <mergeCell ref="C1705:C1710"/>
+    <mergeCell ref="C1714:C1719"/>
+    <mergeCell ref="C1720:C1725"/>
+    <mergeCell ref="B1663:C1668"/>
+    <mergeCell ref="C1669:C1674"/>
+    <mergeCell ref="C1675:C1680"/>
+    <mergeCell ref="C1681:C1686"/>
+    <mergeCell ref="C1687:C1692"/>
+    <mergeCell ref="C1756:C1761"/>
+    <mergeCell ref="C1762:C1767"/>
+    <mergeCell ref="C1771:C1776"/>
+    <mergeCell ref="C1777:C1782"/>
+    <mergeCell ref="C1783:C1788"/>
+    <mergeCell ref="C1726:C1731"/>
+    <mergeCell ref="C1732:C1737"/>
+    <mergeCell ref="C1738:C1743"/>
+    <mergeCell ref="C1744:C1749"/>
+    <mergeCell ref="C1750:C1755"/>
+    <mergeCell ref="C1852:C1857"/>
+    <mergeCell ref="C1858:C1863"/>
+    <mergeCell ref="C1864:C1869"/>
+    <mergeCell ref="C1870:C1875"/>
+    <mergeCell ref="C1876:C1881"/>
+    <mergeCell ref="C1789:C1794"/>
+    <mergeCell ref="A1828:C1833"/>
+    <mergeCell ref="B1834:C1839"/>
+    <mergeCell ref="C1840:C1845"/>
+    <mergeCell ref="C1846:C1851"/>
+    <mergeCell ref="C1954:C1959"/>
+    <mergeCell ref="C1960:C1965"/>
+    <mergeCell ref="C1966:C1971"/>
+    <mergeCell ref="C1972:C1977"/>
+    <mergeCell ref="C1885:C1890"/>
+    <mergeCell ref="C1891:C1896"/>
+    <mergeCell ref="C1897:C1902"/>
+    <mergeCell ref="B1942:C1947"/>
+    <mergeCell ref="C1948:C1953"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
